--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1190600.265806739</v>
+        <v>1202817.675397389</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3671802.79854023</v>
+        <v>3671802.798540229</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3182972.55850085</v>
+        <v>3182972.558500848</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953901</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>2.608692535667753</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>161.04941558542</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>39.49951815376878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>25.43997453787248</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.9313784350747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>163.1482332545338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>7.729093043535603</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>40.91287326691273</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.352901591224</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.556218309919</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>306.7392659739218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>87.24515532326878</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>136.1812042297409</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>97.46995507909364</v>
       </c>
       <c r="U11" t="n">
         <v>251.0899377469579</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>176.9784270682777</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5571666351924</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.4792739314896</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>112.8239574746661</v>
       </c>
       <c r="S13" t="n">
-        <v>199.0291526687759</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.819298701598</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2408213897673</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.28044130268441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>81.1220065286376</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>81.12200652863599</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>176.9784270682777</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>112.8239574746661</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.9704043610067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.991859522894</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>126.999580770026</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>149.4792739314896</v>
       </c>
       <c r="I19" t="n">
-        <v>65.2417505215823</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2408213897673</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>176.0354326554079</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>136.1812042297409</v>
       </c>
       <c r="T20" t="n">
         <v>209.1034356048073</v>
       </c>
       <c r="U20" t="n">
-        <v>208.6235330114218</v>
+        <v>251.0899377469579</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>149.4792739314896</v>
       </c>
       <c r="I22" t="n">
-        <v>100.7560918893584</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.0291526687759</v>
       </c>
       <c r="T22" t="n">
-        <v>221.819298701598</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>220.6432379476436</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>412.106298004153</v>
       </c>
       <c r="H23" t="n">
-        <v>306.7392659739218</v>
+        <v>215.3368123319138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>294.8354850140472</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.09272915390673</v>
+        <v>90.77323187416795</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>199.0291526687759</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>412.106298004153</v>
       </c>
       <c r="H26" t="n">
-        <v>215.3368123319138</v>
+        <v>306.7392659739218</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>87.24515532326878</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>209.1034356048073</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0899377469579</v>
+        <v>72.4423287816831</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.37636445976973</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>12.09489056704459</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5571666351924</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>412.106298004153</v>
       </c>
       <c r="H29" t="n">
-        <v>215.3368123319138</v>
+        <v>215.3368123319156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>54.21613076023788</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.4792739314896</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>112.8239574746661</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.819298701598</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>239.465400149791</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>186.6252828057307</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,10 +3044,10 @@
         <v>412.106298004153</v>
       </c>
       <c r="H32" t="n">
-        <v>306.7392659739218</v>
+        <v>215.3368123319138</v>
       </c>
       <c r="I32" t="n">
-        <v>87.24515532326878</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.6647412191158</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3205,7 +3205,7 @@
         <v>149.4792739314896</v>
       </c>
       <c r="I34" t="n">
-        <v>112.3318159403029</v>
+        <v>61.32090149050959</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.819298701598</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2408213897673</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>291.3313880214725</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>136.1812042297409</v>
+        <v>44.77875058773269</v>
       </c>
       <c r="T35" t="n">
         <v>209.1034356048073</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>84.67688219982708</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5571666351924</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.75257354886399</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>221.819298701598</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2408213897673</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>306.7392659739218</v>
       </c>
       <c r="I38" t="n">
-        <v>87.24515532326876</v>
+        <v>87.24515532326878</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>136.1812042297409</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.45582663953184</v>
+        <v>209.1034356048073</v>
       </c>
       <c r="U38" t="n">
         <v>251.0899377469579</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>343.7715339205178</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>139.916103362413</v>
+        <v>139.9161033624131</v>
       </c>
       <c r="T39" t="n">
         <v>193.2712374895396</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.3318159403029</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>112.823957474666</v>
+        <v>112.8239574746661</v>
       </c>
       <c r="S40" t="n">
         <v>199.0291526687759</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>141.505256337332</v>
+        <v>253.8370722776342</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>412.106298004153</v>
       </c>
       <c r="H41" t="n">
-        <v>215.3368123319147</v>
+        <v>306.7392659739218</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>87.24515532326876</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>136.1812042297409</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.1034356048073</v>
+        <v>166.6370308692723</v>
       </c>
       <c r="U41" t="n">
         <v>251.0899377469579</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>163.1010152527816</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5571666351924</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.94083479328449</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2408213897673</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228949</v>
+        <v>323.9918595228945</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>74.52384213597681</v>
       </c>
       <c r="E46" t="n">
-        <v>90.99904084193936</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>149.4792739314896</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.0291526687759</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.819298701598</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548716</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4434,22 +4434,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>2481.073100146768</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>383.841510736975</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>383.841510736975</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>383.841510736975</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.538454714624</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>383.841510736975</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4407231609042</v>
+        <v>383.841510736975</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2301.146718656286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2047.384933294377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1716.322045950807</v>
+        <v>2380.551451496367</v>
       </c>
       <c r="W8" t="n">
-        <v>1363.553390680693</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.553390680693</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D10" t="n">
-        <v>288.8387344486664</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E10" t="n">
-        <v>140.9256408662733</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>529.6687301194258</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194258</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194258</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194258</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194258</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>529.6687301194258</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>858.5294864740106</v>
+        <v>511.0319182792295</v>
       </c>
       <c r="C11" t="n">
-        <v>858.5294864740106</v>
+        <v>142.0694013388178</v>
       </c>
       <c r="D11" t="n">
-        <v>858.5294864740106</v>
+        <v>142.0694013388178</v>
       </c>
       <c r="E11" t="n">
-        <v>858.5294864740106</v>
+        <v>142.0694013388178</v>
       </c>
       <c r="F11" t="n">
-        <v>858.5294864740106</v>
+        <v>142.0694013388178</v>
       </c>
       <c r="G11" t="n">
-        <v>451.9070437367186</v>
+        <v>142.0694013388178</v>
       </c>
       <c r="H11" t="n">
         <v>142.0694013388178</v>
@@ -5039,52 +5039,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>310.6940552250622</v>
+        <v>143.2884062047092</v>
       </c>
       <c r="K11" t="n">
-        <v>495.3382042111689</v>
+        <v>327.9325551908159</v>
       </c>
       <c r="L11" t="n">
-        <v>761.3073602388952</v>
+        <v>708.8991729401904</v>
       </c>
       <c r="M11" t="n">
-        <v>1088.918730533802</v>
+        <v>1376.4435729672</v>
       </c>
       <c r="N11" t="n">
-        <v>1674.997218668769</v>
+        <v>2043.987972994211</v>
       </c>
       <c r="O11" t="n">
-        <v>1980.378446040724</v>
+        <v>2349.369200366165</v>
       </c>
       <c r="P11" t="n">
-        <v>2525.093978589102</v>
+        <v>2575.504011824776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2646.739057782549</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2559.592319068989</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2559.592319068989</v>
+        <v>2598.69459093833</v>
       </c>
       <c r="U11" t="n">
-        <v>2305.966119324587</v>
+        <v>2345.068391193928</v>
       </c>
       <c r="V11" t="n">
-        <v>1974.903231981016</v>
+        <v>2014.005503850357</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.134576710902</v>
+        <v>1661.236848580243</v>
       </c>
       <c r="X11" t="n">
-        <v>1248.668818449822</v>
+        <v>1287.771090319163</v>
       </c>
       <c r="Y11" t="n">
-        <v>858.5294864740106</v>
+        <v>897.6317583433513</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>88.33865754925498</v>
+        <v>213.1687825362597</v>
       </c>
       <c r="K12" t="n">
-        <v>487.1017551999322</v>
+        <v>611.931880186937</v>
       </c>
       <c r="L12" t="n">
-        <v>717.5604048504052</v>
+        <v>1209.522471687834</v>
       </c>
       <c r="M12" t="n">
-        <v>1385.104804877415</v>
+        <v>1497.813713969945</v>
       </c>
       <c r="N12" t="n">
-        <v>2052.649204904425</v>
+        <v>1808.143812513646</v>
       </c>
       <c r="O12" t="n">
-        <v>2314.320821967325</v>
+        <v>2069.815429576546</v>
       </c>
       <c r="P12" t="n">
-        <v>2505.002297794291</v>
+        <v>2299.968637090324</v>
       </c>
       <c r="Q12" t="n">
         <v>2585.49147238074</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.9958041606071</v>
+        <v>1100.494053833825</v>
       </c>
       <c r="C13" t="n">
-        <v>204.0596212327002</v>
+        <v>931.5578709059178</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>781.441231493582</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>633.5281379111889</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>486.6381904132786</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>318.3986281555084</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>167.4094625681452</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5224,25 +5224,25 @@
         <v>1279.26014178158</v>
       </c>
       <c r="S13" t="n">
-        <v>1078.220593631301</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="T13" t="n">
-        <v>854.1606959529194</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="U13" t="n">
-        <v>565.0285531349725</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="V13" t="n">
-        <v>565.0285531349725</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="W13" t="n">
-        <v>565.0285531349725</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="X13" t="n">
-        <v>565.0285531349725</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.6442689908469</v>
+        <v>1279.26014178158</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>781.1711973675267</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C14" t="n">
-        <v>412.2086804271149</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036442</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036442</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036442</v>
+        <v>135.884402556362</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036442</v>
+        <v>135.884402556362</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>143.2884062047092</v>
+        <v>258.2858679263575</v>
       </c>
       <c r="K14" t="n">
-        <v>648.836513636269</v>
+        <v>442.9300169124642</v>
       </c>
       <c r="L14" t="n">
-        <v>914.8056696639952</v>
+        <v>708.8991729401904</v>
       </c>
       <c r="M14" t="n">
-        <v>1242.417039958902</v>
+        <v>1376.4435729672</v>
       </c>
       <c r="N14" t="n">
-        <v>1579.943313111156</v>
+        <v>2043.987972994211</v>
       </c>
       <c r="O14" t="n">
-        <v>1885.32454048311</v>
+        <v>2349.369200366165</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.312171071469</v>
+        <v>2575.504011824776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.144782938654</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>1931.37612766854</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X14" t="n">
-        <v>1557.91036940746</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y14" t="n">
-        <v>1167.771037431648</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>181.4492801115414</v>
       </c>
       <c r="H15" t="n">
-        <v>84.76436170076421</v>
+        <v>84.76436170076424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>88.33865754925495</v>
+        <v>213.1687825362597</v>
       </c>
       <c r="K15" t="n">
-        <v>487.1017551999321</v>
+        <v>611.931880186937</v>
       </c>
       <c r="L15" t="n">
-        <v>717.5604048504051</v>
+        <v>933.7160624211084</v>
       </c>
       <c r="M15" t="n">
-        <v>1385.104804877415</v>
+        <v>1222.007304703219</v>
       </c>
       <c r="N15" t="n">
-        <v>1695.434903421116</v>
+        <v>1532.337403246921</v>
       </c>
       <c r="O15" t="n">
-        <v>1957.106520484016</v>
+        <v>1794.00902030982</v>
       </c>
       <c r="P15" t="n">
-        <v>2463.066137264519</v>
+        <v>2299.968637090324</v>
       </c>
       <c r="Q15" t="n">
         <v>2585.49147238074</v>
@@ -5422,19 +5422,19 @@
         <v>633.5281379111889</v>
       </c>
       <c r="F16" t="n">
-        <v>486.6381904132785</v>
+        <v>486.6381904132786</v>
       </c>
       <c r="G16" t="n">
         <v>318.3986281555084</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4094625681451</v>
+        <v>167.4094625681452</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>61.87424744444017</v>
+        <v>61.8742474444402</v>
       </c>
       <c r="K16" t="n">
         <v>204.744589966912</v>
@@ -5458,28 +5458,28 @@
         <v>1393.223735190334</v>
       </c>
       <c r="R16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="S16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="T16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="U16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="V16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="W16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="X16" t="n">
-        <v>1393.223735190334</v>
+        <v>1279.26014178158</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.142518664064</v>
+        <v>1279.26014178158</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717208</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776796</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>143.2884062047092</v>
@@ -5519,46 +5519,46 @@
         <v>327.9325551908159</v>
       </c>
       <c r="L17" t="n">
-        <v>708.8991729401898</v>
+        <v>708.8991729401904</v>
       </c>
       <c r="M17" t="n">
         <v>1376.4435729672</v>
       </c>
       <c r="N17" t="n">
-        <v>2043.987972994209</v>
+        <v>2043.987972994211</v>
       </c>
       <c r="O17" t="n">
-        <v>2349.369200366164</v>
+        <v>2349.369200366165</v>
       </c>
       <c r="P17" t="n">
-        <v>2575.504011824774</v>
+        <v>2575.504011824776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018221</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018221</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018221</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757141</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781329</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>181.4492801115414</v>
       </c>
       <c r="H18" t="n">
-        <v>84.76436170076421</v>
+        <v>84.76436170076424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>88.33865754925495</v>
+        <v>88.33865754925498</v>
       </c>
       <c r="K18" t="n">
-        <v>225.2811705574793</v>
+        <v>225.2811705574794</v>
       </c>
       <c r="L18" t="n">
-        <v>687.7938644042758</v>
+        <v>822.8717620583768</v>
       </c>
       <c r="M18" t="n">
-        <v>1355.338264431286</v>
+        <v>1111.163004340488</v>
       </c>
       <c r="N18" t="n">
-        <v>1665.668362974987</v>
+        <v>1532.337403246921</v>
       </c>
       <c r="O18" t="n">
-        <v>2317.263676121849</v>
+        <v>1794.00902030982</v>
       </c>
       <c r="P18" t="n">
-        <v>2507.945151948814</v>
+        <v>2299.968637090324</v>
       </c>
       <c r="Q18" t="n">
         <v>2585.49147238074</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>439.769088438243</v>
+        <v>1750.606388801605</v>
       </c>
       <c r="C19" t="n">
-        <v>270.8329055103361</v>
+        <v>1750.606388801605</v>
       </c>
       <c r="D19" t="n">
-        <v>270.8329055103361</v>
+        <v>1750.606388801605</v>
       </c>
       <c r="E19" t="n">
-        <v>270.8329055103361</v>
+        <v>1622.323983983397</v>
       </c>
       <c r="F19" t="n">
-        <v>270.8329055103361</v>
+        <v>1622.323983983397</v>
       </c>
       <c r="G19" t="n">
-        <v>270.8329055103361</v>
+        <v>1622.323983983397</v>
       </c>
       <c r="H19" t="n">
-        <v>119.8437399229728</v>
+        <v>1471.334818396034</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036442</v>
+        <v>1357.868337648253</v>
       </c>
       <c r="J19" t="n">
-        <v>61.87424744444017</v>
+        <v>1365.799603272329</v>
       </c>
       <c r="K19" t="n">
-        <v>204.744589966912</v>
+        <v>1508.669945794801</v>
       </c>
       <c r="L19" t="n">
-        <v>443.0958744613063</v>
+        <v>1747.021230289195</v>
       </c>
       <c r="M19" t="n">
-        <v>704.7930077390639</v>
+        <v>2008.718363566953</v>
       </c>
       <c r="N19" t="n">
-        <v>965.7021845311829</v>
+        <v>2269.627540359072</v>
       </c>
       <c r="O19" t="n">
-        <v>1190.67774315819</v>
+        <v>2494.603098986078</v>
       </c>
       <c r="P19" t="n">
-        <v>1359.662517063454</v>
+        <v>2663.587872891343</v>
       </c>
       <c r="Q19" t="n">
-        <v>1393.223735190334</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R19" t="n">
-        <v>1393.223735190334</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S19" t="n">
-        <v>1393.223735190334</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T19" t="n">
-        <v>1393.223735190334</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U19" t="n">
-        <v>1104.091592372387</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V19" t="n">
-        <v>849.4071041665001</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W19" t="n">
-        <v>849.4071041665001</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X19" t="n">
-        <v>621.4175532684827</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.4175532684827</v>
+        <v>1932.254853631845</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2431.994980460774</v>
+        <v>2251.54285019282</v>
       </c>
       <c r="C20" t="n">
-        <v>2063.032463520362</v>
+        <v>1882.580333252408</v>
       </c>
       <c r="D20" t="n">
         <v>1704.766764913612</v>
@@ -5741,61 +5741,61 @@
         <v>907.9926075257601</v>
       </c>
       <c r="G20" t="n">
-        <v>491.7236196427773</v>
+        <v>491.7236196427774</v>
       </c>
       <c r="H20" t="n">
         <v>181.8859772448765</v>
       </c>
       <c r="I20" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J20" t="n">
-        <v>350.510631131121</v>
+        <v>350.510631131122</v>
       </c>
       <c r="K20" t="n">
-        <v>856.0587385626804</v>
+        <v>856.0587385626818</v>
       </c>
       <c r="L20" t="n">
-        <v>1535.512496995353</v>
+        <v>1535.512496995354</v>
       </c>
       <c r="M20" t="n">
-        <v>2308.142265448164</v>
+        <v>2308.142265448165</v>
       </c>
       <c r="N20" t="n">
-        <v>3078.641993768282</v>
+        <v>3078.641993768284</v>
       </c>
       <c r="O20" t="n">
-        <v>3761.015400590355</v>
+        <v>3761.015400590356</v>
       </c>
       <c r="P20" t="n">
-        <v>4305.730933138733</v>
+        <v>4305.730933138734</v>
       </c>
       <c r="Q20" t="n">
-        <v>4637.567853085485</v>
+        <v>4637.567853085487</v>
       </c>
       <c r="R20" t="n">
-        <v>4687.977886321159</v>
+        <v>4687.97788632116</v>
       </c>
       <c r="S20" t="n">
-        <v>4687.977886321159</v>
+        <v>4550.421114371928</v>
       </c>
       <c r="T20" t="n">
-        <v>4476.762294801151</v>
+        <v>4339.20552285192</v>
       </c>
       <c r="U20" t="n">
-        <v>4266.031453375473</v>
+        <v>4085.579323107518</v>
       </c>
       <c r="V20" t="n">
-        <v>3934.968566031902</v>
+        <v>3754.516435763947</v>
       </c>
       <c r="W20" t="n">
-        <v>3582.199910761788</v>
+        <v>3401.747780493833</v>
       </c>
       <c r="X20" t="n">
-        <v>3208.734152500708</v>
+        <v>3028.282022232753</v>
       </c>
       <c r="Y20" t="n">
-        <v>2818.594820524896</v>
+        <v>2638.142690256941</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>664.0411732884804</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8037182830249</v>
+        <v>504.803718283025</v>
       </c>
       <c r="F21" t="n">
         <v>358.2691603099099</v>
@@ -5826,7 +5826,7 @@
         <v>124.580937606823</v>
       </c>
       <c r="I21" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J21" t="n">
         <v>128.1552334553137</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>664.8787551751634</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="C22" t="n">
-        <v>664.8787551751634</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="D22" t="n">
-        <v>514.7621157628276</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="E22" t="n">
-        <v>514.7621157628276</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="F22" t="n">
-        <v>514.7621157628276</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="G22" t="n">
-        <v>346.5225535050575</v>
+        <v>358.2152040615672</v>
       </c>
       <c r="H22" t="n">
-        <v>195.5333879176943</v>
+        <v>207.2260384742039</v>
       </c>
       <c r="I22" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J22" t="n">
-        <v>101.6908233504989</v>
+        <v>101.690823350499</v>
       </c>
       <c r="K22" t="n">
         <v>244.5611658729707</v>
@@ -5935,25 +5935,25 @@
         <v>1433.040311096393</v>
       </c>
       <c r="S22" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="T22" t="n">
-        <v>1208.980413418011</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="U22" t="n">
-        <v>1208.980413418011</v>
+        <v>1009.128805423241</v>
       </c>
       <c r="V22" t="n">
-        <v>954.295925212124</v>
+        <v>754.4443172173546</v>
       </c>
       <c r="W22" t="n">
-        <v>664.8787551751634</v>
+        <v>754.4443172173546</v>
       </c>
       <c r="X22" t="n">
-        <v>664.8787551751634</v>
+        <v>526.4547663193373</v>
       </c>
       <c r="Y22" t="n">
-        <v>664.8787551751634</v>
+        <v>526.4547663193373</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2343.868560942321</v>
+        <v>2251.542850192818</v>
       </c>
       <c r="C23" t="n">
-        <v>1974.906044001909</v>
+        <v>1882.580333252406</v>
       </c>
       <c r="D23" t="n">
-        <v>1616.640345395159</v>
+        <v>1524.314634645656</v>
       </c>
       <c r="E23" t="n">
-        <v>1230.852092796914</v>
+        <v>1138.526382047411</v>
       </c>
       <c r="F23" t="n">
-        <v>819.8661880073068</v>
+        <v>727.5404772578038</v>
       </c>
       <c r="G23" t="n">
-        <v>403.597200124324</v>
+        <v>311.271489374821</v>
       </c>
       <c r="H23" t="n">
-        <v>93.75955772642321</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="I23" t="n">
-        <v>93.75955772642321</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J23" t="n">
-        <v>350.5106311311224</v>
+        <v>350.510631131121</v>
       </c>
       <c r="K23" t="n">
-        <v>856.0587385626827</v>
+        <v>856.0587385626808</v>
       </c>
       <c r="L23" t="n">
-        <v>1535.512496995355</v>
+        <v>1535.512496995353</v>
       </c>
       <c r="M23" t="n">
-        <v>2308.142265448166</v>
+        <v>2308.142265448164</v>
       </c>
       <c r="N23" t="n">
-        <v>3078.641993768284</v>
+        <v>3078.641993768282</v>
       </c>
       <c r="O23" t="n">
-        <v>3761.015400590357</v>
+        <v>3761.015400590355</v>
       </c>
       <c r="P23" t="n">
-        <v>4305.730933138735</v>
+        <v>4305.730933138733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4637.567853085487</v>
+        <v>4637.567853085485</v>
       </c>
       <c r="R23" t="n">
-        <v>4687.97788632116</v>
+        <v>4687.977886321159</v>
       </c>
       <c r="S23" t="n">
-        <v>4550.421114371928</v>
+        <v>4550.421114371926</v>
       </c>
       <c r="T23" t="n">
-        <v>4339.20552285192</v>
+        <v>4339.205522851918</v>
       </c>
       <c r="U23" t="n">
-        <v>4085.579323107518</v>
+        <v>4085.579323107516</v>
       </c>
       <c r="V23" t="n">
-        <v>3754.516435763947</v>
+        <v>3754.516435763946</v>
       </c>
       <c r="W23" t="n">
-        <v>3401.747780493833</v>
+        <v>3401.747780493831</v>
       </c>
       <c r="X23" t="n">
-        <v>3028.282022232753</v>
+        <v>3028.282022232751</v>
       </c>
       <c r="Y23" t="n">
-        <v>2730.468401006443</v>
+        <v>2638.14269025694</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>664.0411732884804</v>
       </c>
       <c r="E24" t="n">
-        <v>504.803718283025</v>
+        <v>504.8037182830249</v>
       </c>
       <c r="F24" t="n">
         <v>358.2691603099099</v>
@@ -6063,7 +6063,7 @@
         <v>124.580937606823</v>
       </c>
       <c r="I24" t="n">
-        <v>93.75955772642321</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J24" t="n">
         <v>128.1552334553137</v>
@@ -6136,16 +6136,16 @@
         <v>526.4547663193373</v>
       </c>
       <c r="G25" t="n">
-        <v>358.2152040615672</v>
+        <v>358.2152040615671</v>
       </c>
       <c r="H25" t="n">
-        <v>207.2260384742039</v>
+        <v>207.2260384742038</v>
       </c>
       <c r="I25" t="n">
-        <v>93.75955772642321</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J25" t="n">
-        <v>101.690823350499</v>
+        <v>101.6908233504989</v>
       </c>
       <c r="K25" t="n">
         <v>244.5611658729707</v>
@@ -6172,25 +6172,25 @@
         <v>1433.040311096393</v>
       </c>
       <c r="S25" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="T25" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="U25" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.040311096393</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.050760198375</v>
+        <v>1232.000762946114</v>
       </c>
       <c r="Y25" t="n">
-        <v>1205.050760198375</v>
+        <v>1232.000762946114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2251.542850192818</v>
+        <v>2431.994980460774</v>
       </c>
       <c r="C26" t="n">
-        <v>1882.580333252406</v>
+        <v>2063.032463520362</v>
       </c>
       <c r="D26" t="n">
-        <v>1524.314634645656</v>
+        <v>1704.766764913612</v>
       </c>
       <c r="E26" t="n">
-        <v>1138.526382047411</v>
+        <v>1318.978512315368</v>
       </c>
       <c r="F26" t="n">
-        <v>727.5404772578038</v>
+        <v>907.9926075257601</v>
       </c>
       <c r="G26" t="n">
-        <v>311.271489374821</v>
+        <v>491.7236196427774</v>
       </c>
       <c r="H26" t="n">
-        <v>93.75955772642317</v>
+        <v>181.8859772448765</v>
       </c>
       <c r="I26" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J26" t="n">
         <v>350.510631131121</v>
       </c>
       <c r="K26" t="n">
-        <v>856.0587385626808</v>
+        <v>856.0587385626809</v>
       </c>
       <c r="L26" t="n">
         <v>1535.512496995353</v>
       </c>
       <c r="M26" t="n">
-        <v>2308.142265448163</v>
+        <v>2308.142265448164</v>
       </c>
       <c r="N26" t="n">
-        <v>3078.641993768281</v>
+        <v>3078.641993768282</v>
       </c>
       <c r="O26" t="n">
         <v>3761.015400590354</v>
@@ -6248,28 +6248,28 @@
         <v>4637.567853085485</v>
       </c>
       <c r="R26" t="n">
-        <v>4687.977886321159</v>
+        <v>4687.97788632116</v>
       </c>
       <c r="S26" t="n">
-        <v>4550.421114371926</v>
+        <v>4550.421114371928</v>
       </c>
       <c r="T26" t="n">
-        <v>4339.205522851918</v>
+        <v>4339.20552285192</v>
       </c>
       <c r="U26" t="n">
-        <v>4085.579323107516</v>
+        <v>4266.031453375473</v>
       </c>
       <c r="V26" t="n">
-        <v>3754.516435763946</v>
+        <v>3934.968566031902</v>
       </c>
       <c r="W26" t="n">
-        <v>3401.747780493831</v>
+        <v>3582.199910761788</v>
       </c>
       <c r="X26" t="n">
-        <v>3028.282022232751</v>
+        <v>3208.734152500708</v>
       </c>
       <c r="Y26" t="n">
-        <v>2638.14269025694</v>
+        <v>2818.594820524896</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>664.0411732884804</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8037182830249</v>
+        <v>504.803718283025</v>
       </c>
       <c r="F27" t="n">
         <v>358.2691603099099</v>
@@ -6300,7 +6300,7 @@
         <v>124.580937606823</v>
       </c>
       <c r="I27" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J27" t="n">
         <v>128.1552334553137</v>
@@ -6309,16 +6309,16 @@
         <v>265.0977464635381</v>
       </c>
       <c r="L27" t="n">
-        <v>862.6883379644356</v>
+        <v>791.5854571016954</v>
       </c>
       <c r="M27" t="n">
-        <v>1150.979580246546</v>
+        <v>1079.876699383806</v>
       </c>
       <c r="N27" t="n">
-        <v>1935.858629390366</v>
+        <v>1390.206797927508</v>
       </c>
       <c r="O27" t="n">
-        <v>2197.530246453265</v>
+        <v>2041.802111074369</v>
       </c>
       <c r="P27" t="n">
         <v>2547.761727854873</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3768.130121412411</v>
+        <v>741.182097085662</v>
       </c>
       <c r="C28" t="n">
-        <v>3599.193938484504</v>
+        <v>572.2459141577551</v>
       </c>
       <c r="D28" t="n">
-        <v>3449.077299072168</v>
+        <v>422.1292747454194</v>
       </c>
       <c r="E28" t="n">
-        <v>3348.697132951189</v>
+        <v>274.2161811630262</v>
       </c>
       <c r="F28" t="n">
-        <v>3348.697132951189</v>
+        <v>261.9991199841933</v>
       </c>
       <c r="G28" t="n">
-        <v>3348.697132951189</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="H28" t="n">
-        <v>3348.697132951189</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="I28" t="n">
-        <v>3348.697132951189</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J28" t="n">
-        <v>3356.628398575265</v>
+        <v>101.690823350499</v>
       </c>
       <c r="K28" t="n">
-        <v>3499.498741097736</v>
+        <v>244.5611658729707</v>
       </c>
       <c r="L28" t="n">
-        <v>3737.850025592131</v>
+        <v>482.9124503673651</v>
       </c>
       <c r="M28" t="n">
-        <v>3999.547158869888</v>
+        <v>744.6095836451227</v>
       </c>
       <c r="N28" t="n">
-        <v>4260.456335662007</v>
+        <v>1005.518760437242</v>
       </c>
       <c r="O28" t="n">
-        <v>4485.431894289014</v>
+        <v>1230.494319064248</v>
       </c>
       <c r="P28" t="n">
-        <v>4654.416668194279</v>
+        <v>1399.479092969513</v>
       </c>
       <c r="Q28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="R28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="S28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="T28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="U28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="V28" t="n">
-        <v>4687.977886321159</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="W28" t="n">
-        <v>4398.560716284198</v>
+        <v>1143.623141059432</v>
       </c>
       <c r="X28" t="n">
-        <v>4170.571165386181</v>
+        <v>1143.623141059432</v>
       </c>
       <c r="Y28" t="n">
-        <v>3949.778586242651</v>
+        <v>922.8305619159017</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2251.542850192818</v>
+        <v>2251.54285019282</v>
       </c>
       <c r="C29" t="n">
-        <v>1882.580333252406</v>
+        <v>1882.580333252408</v>
       </c>
       <c r="D29" t="n">
-        <v>1524.314634645656</v>
+        <v>1524.314634645657</v>
       </c>
       <c r="E29" t="n">
-        <v>1138.526382047411</v>
+        <v>1138.526382047413</v>
       </c>
       <c r="F29" t="n">
-        <v>727.5404772578038</v>
+        <v>727.5404772578056</v>
       </c>
       <c r="G29" t="n">
-        <v>311.271489374821</v>
+        <v>311.2714893748228</v>
       </c>
       <c r="H29" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="I29" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J29" t="n">
-        <v>350.510631131121</v>
+        <v>350.510631131122</v>
       </c>
       <c r="K29" t="n">
-        <v>856.0587385626808</v>
+        <v>856.0587385626818</v>
       </c>
       <c r="L29" t="n">
-        <v>1535.512496995353</v>
+        <v>1535.512496995354</v>
       </c>
       <c r="M29" t="n">
-        <v>2308.142265448164</v>
+        <v>2308.142265448165</v>
       </c>
       <c r="N29" t="n">
-        <v>3078.641993768283</v>
+        <v>3078.641993768284</v>
       </c>
       <c r="O29" t="n">
-        <v>3761.015400590354</v>
+        <v>3761.015400590356</v>
       </c>
       <c r="P29" t="n">
-        <v>4305.730933138733</v>
+        <v>4305.730933138734</v>
       </c>
       <c r="Q29" t="n">
-        <v>4637.567853085485</v>
+        <v>4637.567853085487</v>
       </c>
       <c r="R29" t="n">
-        <v>4687.977886321159</v>
+        <v>4687.97788632116</v>
       </c>
       <c r="S29" t="n">
-        <v>4550.421114371926</v>
+        <v>4550.421114371928</v>
       </c>
       <c r="T29" t="n">
-        <v>4339.205522851918</v>
+        <v>4339.20552285192</v>
       </c>
       <c r="U29" t="n">
-        <v>4085.579323107516</v>
+        <v>4085.579323107518</v>
       </c>
       <c r="V29" t="n">
-        <v>3754.516435763946</v>
+        <v>3754.516435763947</v>
       </c>
       <c r="W29" t="n">
-        <v>3401.747780493831</v>
+        <v>3401.747780493833</v>
       </c>
       <c r="X29" t="n">
-        <v>3028.282022232751</v>
+        <v>3028.282022232753</v>
       </c>
       <c r="Y29" t="n">
-        <v>2638.14269025694</v>
+        <v>2638.142690256941</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>664.0411732884804</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8037182830249</v>
+        <v>504.803718283025</v>
       </c>
       <c r="F30" t="n">
         <v>358.2691603099099</v>
@@ -6537,7 +6537,7 @@
         <v>124.580937606823</v>
       </c>
       <c r="I30" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J30" t="n">
         <v>128.1552334553137</v>
@@ -6549,13 +6549,13 @@
         <v>862.6883379644356</v>
       </c>
       <c r="M30" t="n">
-        <v>1612.027593359046</v>
+        <v>1150.979580246546</v>
       </c>
       <c r="N30" t="n">
-        <v>2095.408634965007</v>
+        <v>1461.309678790248</v>
       </c>
       <c r="O30" t="n">
-        <v>2357.080252027907</v>
+        <v>2041.802111074369</v>
       </c>
       <c r="P30" t="n">
         <v>2547.761727854873</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7254736490589</v>
+        <v>913.3683551790174</v>
       </c>
       <c r="C31" t="n">
-        <v>391.789290721152</v>
+        <v>744.4321722511105</v>
       </c>
       <c r="D31" t="n">
-        <v>241.6726513088163</v>
+        <v>594.3155328387747</v>
       </c>
       <c r="E31" t="n">
-        <v>93.75955772642317</v>
+        <v>446.4024392563816</v>
       </c>
       <c r="F31" t="n">
-        <v>93.75955772642317</v>
+        <v>299.5124917584712</v>
       </c>
       <c r="G31" t="n">
-        <v>93.75955772642317</v>
+        <v>244.7487233137865</v>
       </c>
       <c r="H31" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="I31" t="n">
-        <v>93.75955772642317</v>
+        <v>93.75955772642321</v>
       </c>
       <c r="J31" t="n">
-        <v>101.6908233504989</v>
+        <v>101.690823350499</v>
       </c>
       <c r="K31" t="n">
         <v>244.5611658729707</v>
@@ -6643,28 +6643,28 @@
         <v>1433.040311096393</v>
       </c>
       <c r="R31" t="n">
-        <v>1433.040311096393</v>
+        <v>1319.076717687639</v>
       </c>
       <c r="S31" t="n">
-        <v>1433.040311096393</v>
+        <v>1319.076717687639</v>
       </c>
       <c r="T31" t="n">
-        <v>1433.040311096393</v>
+        <v>1095.016820009257</v>
       </c>
       <c r="U31" t="n">
-        <v>1433.040311096393</v>
+        <v>1095.016820009257</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.040311096393</v>
+        <v>1095.016820009257</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.156068520846</v>
+        <v>1095.016820009257</v>
       </c>
       <c r="X31" t="n">
-        <v>963.1665176228288</v>
+        <v>1095.016820009257</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.3739384792987</v>
+        <v>1095.016820009257</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2251.542850192818</v>
       </c>
       <c r="C32" t="n">
-        <v>2063.032463520362</v>
+        <v>1882.580333252406</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.766764913612</v>
+        <v>1524.314634645656</v>
       </c>
       <c r="E32" t="n">
-        <v>1318.978512315368</v>
+        <v>1138.526382047411</v>
       </c>
       <c r="F32" t="n">
-        <v>907.9926075257601</v>
+        <v>727.5404772578038</v>
       </c>
       <c r="G32" t="n">
-        <v>491.7236196427773</v>
+        <v>311.271489374821</v>
       </c>
       <c r="H32" t="n">
-        <v>181.8859772448765</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="I32" t="n">
         <v>93.75955772642317</v>
       </c>
       <c r="J32" t="n">
-        <v>350.5106311311201</v>
+        <v>350.510631131121</v>
       </c>
       <c r="K32" t="n">
-        <v>856.0587385626799</v>
+        <v>856.0587385626808</v>
       </c>
       <c r="L32" t="n">
-        <v>1535.512496995352</v>
+        <v>1535.512496995353</v>
       </c>
       <c r="M32" t="n">
-        <v>2308.142265448163</v>
+        <v>2308.142265448164</v>
       </c>
       <c r="N32" t="n">
-        <v>3078.641993768281</v>
+        <v>3078.641993768282</v>
       </c>
       <c r="O32" t="n">
         <v>3761.015400590354</v>
@@ -6777,19 +6777,19 @@
         <v>93.75955772642317</v>
       </c>
       <c r="J33" t="n">
-        <v>128.1552334553137</v>
+        <v>252.9853584423184</v>
       </c>
       <c r="K33" t="n">
-        <v>265.0977464635381</v>
+        <v>389.9278714505429</v>
       </c>
       <c r="L33" t="n">
-        <v>645.8155849427333</v>
+        <v>620.3865211010159</v>
       </c>
       <c r="M33" t="n">
-        <v>1395.154840337344</v>
+        <v>1369.725776495627</v>
       </c>
       <c r="N33" t="n">
-        <v>1705.484938881045</v>
+        <v>2095.408634965007</v>
       </c>
       <c r="O33" t="n">
         <v>2357.080252027907</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1140.310629739884</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="C34" t="n">
-        <v>971.3744468119766</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="D34" t="n">
-        <v>821.2578073996408</v>
+        <v>769.7316311877283</v>
       </c>
       <c r="E34" t="n">
-        <v>673.3447138172477</v>
+        <v>621.8185376053352</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4547663193373</v>
+        <v>474.9285901074248</v>
       </c>
       <c r="G34" t="n">
-        <v>358.2152040615671</v>
+        <v>306.6890278496547</v>
       </c>
       <c r="H34" t="n">
-        <v>207.2260384742038</v>
+        <v>155.6998622622914</v>
       </c>
       <c r="I34" t="n">
         <v>93.75955772642317</v>
@@ -6886,22 +6886,22 @@
         <v>1433.040311096393</v>
       </c>
       <c r="T34" t="n">
-        <v>1433.040311096393</v>
+        <v>1208.980413418011</v>
       </c>
       <c r="U34" t="n">
-        <v>1433.040311096393</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="V34" t="n">
-        <v>1178.355822890506</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="W34" t="n">
-        <v>1178.355822890506</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="X34" t="n">
-        <v>1178.355822890506</v>
+        <v>919.8482706000641</v>
       </c>
       <c r="Y34" t="n">
-        <v>1178.355822890506</v>
+        <v>919.8482706000641</v>
       </c>
     </row>
     <row r="35">
@@ -6938,7 +6938,7 @@
         <v>350.510631131121</v>
       </c>
       <c r="K35" t="n">
-        <v>856.0587385626809</v>
+        <v>856.0587385626808</v>
       </c>
       <c r="L35" t="n">
         <v>1535.512496995353</v>
@@ -6947,7 +6947,7 @@
         <v>2308.142265448164</v>
       </c>
       <c r="N35" t="n">
-        <v>3078.641993768283</v>
+        <v>3078.641993768282</v>
       </c>
       <c r="O35" t="n">
         <v>3761.015400590355</v>
@@ -6962,25 +6962,25 @@
         <v>4687.977886321159</v>
       </c>
       <c r="S35" t="n">
-        <v>4550.421114371926</v>
+        <v>4642.746825121429</v>
       </c>
       <c r="T35" t="n">
-        <v>4339.205522851918</v>
+        <v>4431.531233601421</v>
       </c>
       <c r="U35" t="n">
-        <v>4085.579323107516</v>
+        <v>4177.90503385702</v>
       </c>
       <c r="V35" t="n">
-        <v>3754.516435763946</v>
+        <v>3846.842146513449</v>
       </c>
       <c r="W35" t="n">
-        <v>3401.747780493831</v>
+        <v>3494.073491243335</v>
       </c>
       <c r="X35" t="n">
-        <v>3028.282022232751</v>
+        <v>3120.607732982255</v>
       </c>
       <c r="Y35" t="n">
-        <v>2638.14269025694</v>
+        <v>2730.468401006443</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4286122308587</v>
+        <v>3050.098450265219</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9755829497317</v>
+        <v>2875.645420984092</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0411732884804</v>
+        <v>2726.711011322841</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8037182830249</v>
+        <v>2567.473556317385</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2691603099099</v>
+        <v>2420.93899834427</v>
       </c>
       <c r="G36" t="n">
-        <v>221.2658560176002</v>
+        <v>2283.935694051961</v>
       </c>
       <c r="H36" t="n">
-        <v>124.580937606823</v>
+        <v>2187.250775641183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.75955772642317</v>
+        <v>2156.429395760783</v>
       </c>
       <c r="J36" t="n">
-        <v>128.1552334553137</v>
+        <v>2190.825071489674</v>
       </c>
       <c r="K36" t="n">
-        <v>265.0977464635381</v>
+        <v>2327.767584497898</v>
       </c>
       <c r="L36" t="n">
-        <v>862.6883379644356</v>
+        <v>2558.226234148372</v>
       </c>
       <c r="M36" t="n">
-        <v>1150.979580246546</v>
+        <v>3307.565489542983</v>
       </c>
       <c r="N36" t="n">
-        <v>1461.309678790248</v>
+        <v>4092.444538686802</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.90499193711</v>
+        <v>4419.750090062267</v>
       </c>
       <c r="P36" t="n">
-        <v>2547.761727854873</v>
+        <v>4610.431565889233</v>
       </c>
       <c r="Q36" t="n">
-        <v>2625.308048286799</v>
+        <v>4687.977886321159</v>
       </c>
       <c r="R36" t="n">
-        <v>2625.308048286799</v>
+        <v>4687.977886321159</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.978650951028</v>
+        <v>4546.648488985388</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.755178739371</v>
+        <v>4351.425016773732</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.645213181358</v>
+        <v>4123.315051215718</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.493104949615</v>
+        <v>3888.162942983975</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.255748221413</v>
+        <v>3633.925586255774</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.404248015881</v>
+        <v>3426.074086050241</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.643949250927</v>
+        <v>3218.313787285287</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>330.1225826228796</v>
+        <v>516.4675071543497</v>
       </c>
       <c r="C37" t="n">
-        <v>161.1863996949727</v>
+        <v>347.5313242264428</v>
       </c>
       <c r="D37" t="n">
-        <v>161.1863996949727</v>
+        <v>347.5313242264428</v>
       </c>
       <c r="E37" t="n">
-        <v>161.1863996949727</v>
+        <v>261.9991199841933</v>
       </c>
       <c r="F37" t="n">
-        <v>161.1863996949727</v>
+        <v>261.9991199841933</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1863996949727</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="H37" t="n">
-        <v>161.1863996949727</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="I37" t="n">
         <v>93.75955772642317</v>
@@ -7126,19 +7126,19 @@
         <v>1095.016820009257</v>
       </c>
       <c r="U37" t="n">
-        <v>1095.016820009257</v>
+        <v>805.8846771913104</v>
       </c>
       <c r="V37" t="n">
-        <v>840.3323318033703</v>
+        <v>805.8846771913104</v>
       </c>
       <c r="W37" t="n">
-        <v>550.9151617664097</v>
+        <v>516.4675071543497</v>
       </c>
       <c r="X37" t="n">
-        <v>550.9151617664097</v>
+        <v>516.4675071543497</v>
       </c>
       <c r="Y37" t="n">
-        <v>330.1225826228796</v>
+        <v>516.4675071543497</v>
       </c>
     </row>
     <row r="38">
@@ -7169,52 +7169,52 @@
         <v>181.8859772448765</v>
       </c>
       <c r="I38" t="n">
-        <v>93.7595577264232</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J38" t="n">
         <v>350.510631131121</v>
       </c>
       <c r="K38" t="n">
-        <v>856.0587385626809</v>
+        <v>856.0587385626808</v>
       </c>
       <c r="L38" t="n">
         <v>1535.512496995353</v>
       </c>
       <c r="M38" t="n">
-        <v>2308.142265448165</v>
+        <v>2308.142265448164</v>
       </c>
       <c r="N38" t="n">
-        <v>3078.641993768283</v>
+        <v>3078.641993768282</v>
       </c>
       <c r="O38" t="n">
-        <v>3761.015400590355</v>
+        <v>3761.015400590354</v>
       </c>
       <c r="P38" t="n">
         <v>4305.730933138733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4637.567853085486</v>
+        <v>4637.567853085485</v>
       </c>
       <c r="R38" t="n">
-        <v>4687.97788632116</v>
+        <v>4687.977886321159</v>
       </c>
       <c r="S38" t="n">
-        <v>4550.421114371927</v>
+        <v>4687.977886321159</v>
       </c>
       <c r="T38" t="n">
-        <v>4519.657653119874</v>
+        <v>4476.762294801151</v>
       </c>
       <c r="U38" t="n">
-        <v>4266.031453375473</v>
+        <v>4223.13609505675</v>
       </c>
       <c r="V38" t="n">
-        <v>3934.968566031902</v>
+        <v>3892.073207713179</v>
       </c>
       <c r="W38" t="n">
-        <v>3582.199910761788</v>
+        <v>3539.304552443064</v>
       </c>
       <c r="X38" t="n">
-        <v>3208.734152500708</v>
+        <v>3165.838794181985</v>
       </c>
       <c r="Y38" t="n">
         <v>2818.594820524896</v>
@@ -7248,28 +7248,28 @@
         <v>124.580937606823</v>
       </c>
       <c r="I39" t="n">
-        <v>93.7595577264232</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J39" t="n">
         <v>128.1552334553137</v>
       </c>
       <c r="K39" t="n">
-        <v>265.0977464635382</v>
+        <v>526.9183311059909</v>
       </c>
       <c r="L39" t="n">
-        <v>495.5563961140111</v>
+        <v>973.5326383271669</v>
       </c>
       <c r="M39" t="n">
-        <v>920.6058897372261</v>
+        <v>1261.823880609278</v>
       </c>
       <c r="N39" t="n">
-        <v>1705.484938881045</v>
+        <v>1572.153979152979</v>
       </c>
       <c r="O39" t="n">
-        <v>2357.080252027907</v>
+        <v>1833.825596215879</v>
       </c>
       <c r="P39" t="n">
-        <v>2547.761727854873</v>
+        <v>2339.785212996382</v>
       </c>
       <c r="Q39" t="n">
         <v>2625.308048286799</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="C40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="D40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="E40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="F40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="G40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="H40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="I40" t="n">
-        <v>3348.69713295119</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="J40" t="n">
-        <v>3356.628398575266</v>
+        <v>101.6908233504989</v>
       </c>
       <c r="K40" t="n">
-        <v>3499.498741097737</v>
+        <v>244.5611658729707</v>
       </c>
       <c r="L40" t="n">
-        <v>3737.850025592132</v>
+        <v>482.9124503673651</v>
       </c>
       <c r="M40" t="n">
-        <v>3999.547158869889</v>
+        <v>744.6095836451227</v>
       </c>
       <c r="N40" t="n">
-        <v>4260.456335662008</v>
+        <v>1005.518760437242</v>
       </c>
       <c r="O40" t="n">
-        <v>4485.431894289015</v>
+        <v>1230.494319064248</v>
       </c>
       <c r="P40" t="n">
-        <v>4654.41666819428</v>
+        <v>1399.479092969513</v>
       </c>
       <c r="Q40" t="n">
-        <v>4687.97788632116</v>
+        <v>1433.040311096393</v>
       </c>
       <c r="R40" t="n">
-        <v>4574.014292912406</v>
+        <v>1319.076717687639</v>
       </c>
       <c r="S40" t="n">
-        <v>4372.974744762128</v>
+        <v>1118.03716953736</v>
       </c>
       <c r="T40" t="n">
-        <v>4148.914847083745</v>
+        <v>893.9772718589783</v>
       </c>
       <c r="U40" t="n">
-        <v>3859.782704265799</v>
+        <v>604.8451290410314</v>
       </c>
       <c r="V40" t="n">
-        <v>3605.098216059912</v>
+        <v>350.1606408351446</v>
       </c>
       <c r="W40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="X40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
       <c r="Y40" t="n">
-        <v>3462.16361369897</v>
+        <v>93.75955772642317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2251.542850192819</v>
+        <v>2431.994980460774</v>
       </c>
       <c r="C41" t="n">
-        <v>1882.580333252407</v>
+        <v>2063.032463520362</v>
       </c>
       <c r="D41" t="n">
-        <v>1524.314634645656</v>
+        <v>1704.766764913612</v>
       </c>
       <c r="E41" t="n">
-        <v>1138.526382047412</v>
+        <v>1318.978512315368</v>
       </c>
       <c r="F41" t="n">
-        <v>727.5404772578047</v>
+        <v>907.9926075257601</v>
       </c>
       <c r="G41" t="n">
-        <v>311.2714893748219</v>
+        <v>491.7236196427773</v>
       </c>
       <c r="H41" t="n">
-        <v>93.7595577264232</v>
+        <v>181.8859772448765</v>
       </c>
       <c r="I41" t="n">
         <v>93.7595577264232</v>
@@ -7418,43 +7418,43 @@
         <v>1535.512496995353</v>
       </c>
       <c r="M41" t="n">
-        <v>2308.142265448164</v>
+        <v>2308.142265448165</v>
       </c>
       <c r="N41" t="n">
         <v>3078.641993768283</v>
       </c>
       <c r="O41" t="n">
-        <v>3761.015400590356</v>
+        <v>3761.015400590355</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.730933138734</v>
+        <v>4305.730933138733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4637.567853085487</v>
+        <v>4637.567853085486</v>
       </c>
       <c r="R41" t="n">
         <v>4687.97788632116</v>
       </c>
       <c r="S41" t="n">
-        <v>4550.421114371927</v>
+        <v>4687.97788632116</v>
       </c>
       <c r="T41" t="n">
-        <v>4339.205522851919</v>
+        <v>4519.657653119874</v>
       </c>
       <c r="U41" t="n">
-        <v>4085.579323107517</v>
+        <v>4266.031453375473</v>
       </c>
       <c r="V41" t="n">
-        <v>3754.516435763946</v>
+        <v>3934.968566031902</v>
       </c>
       <c r="W41" t="n">
-        <v>3401.747780493832</v>
+        <v>3582.199910761788</v>
       </c>
       <c r="X41" t="n">
-        <v>3028.282022232752</v>
+        <v>3208.734152500708</v>
       </c>
       <c r="Y41" t="n">
-        <v>2638.142690256941</v>
+        <v>2818.594820524896</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.7595577264232</v>
       </c>
       <c r="J42" t="n">
-        <v>128.1552334553137</v>
+        <v>252.9853584423185</v>
       </c>
       <c r="K42" t="n">
-        <v>265.0977464635382</v>
+        <v>651.7484560929958</v>
       </c>
       <c r="L42" t="n">
-        <v>495.5563961140111</v>
+        <v>1249.339047593893</v>
       </c>
       <c r="M42" t="n">
-        <v>920.6058897372261</v>
+        <v>1537.630289876004</v>
       </c>
       <c r="N42" t="n">
-        <v>1705.484938881045</v>
+        <v>1847.960388419705</v>
       </c>
       <c r="O42" t="n">
-        <v>2357.080252027907</v>
+        <v>2109.632005482605</v>
       </c>
       <c r="P42" t="n">
-        <v>2547.761727854873</v>
+        <v>2339.785212996382</v>
       </c>
       <c r="Q42" t="n">
         <v>2625.308048286799</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>258.5080579817582</v>
+        <v>405.7088681999381</v>
       </c>
       <c r="C43" t="n">
-        <v>93.7595577264232</v>
+        <v>405.7088681999381</v>
       </c>
       <c r="D43" t="n">
-        <v>93.7595577264232</v>
+        <v>405.7088681999381</v>
       </c>
       <c r="E43" t="n">
-        <v>93.7595577264232</v>
+        <v>405.7088681999381</v>
       </c>
       <c r="F43" t="n">
-        <v>93.7595577264232</v>
+        <v>405.7088681999381</v>
       </c>
       <c r="G43" t="n">
-        <v>93.7595577264232</v>
+        <v>237.469305942168</v>
       </c>
       <c r="H43" t="n">
-        <v>93.7595577264232</v>
+        <v>207.2260384742039</v>
       </c>
       <c r="I43" t="n">
         <v>93.7595577264232</v>
@@ -7600,19 +7600,19 @@
         <v>1433.040311096393</v>
       </c>
       <c r="U43" t="n">
-        <v>1433.040311096393</v>
+        <v>1143.908168278446</v>
       </c>
       <c r="V43" t="n">
-        <v>1178.355822890506</v>
+        <v>1143.908168278446</v>
       </c>
       <c r="W43" t="n">
-        <v>888.9386528535454</v>
+        <v>854.4909982414856</v>
       </c>
       <c r="X43" t="n">
-        <v>660.949101955528</v>
+        <v>626.5014473434683</v>
       </c>
       <c r="Y43" t="n">
-        <v>440.1565228119979</v>
+        <v>405.7088681999381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.944160717208</v>
       </c>
       <c r="C44" t="n">
         <v>1177.981643776797</v>
@@ -7631,61 +7631,61 @@
         <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785527</v>
+        <v>792.1933911785522</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889451</v>
+        <v>381.2074863889447</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>143.2884062047093</v>
+        <v>207.8758346906833</v>
       </c>
       <c r="K44" t="n">
-        <v>648.8365136362692</v>
+        <v>392.5199836767901</v>
       </c>
       <c r="L44" t="n">
-        <v>1316.380913663279</v>
+        <v>658.4891397045163</v>
       </c>
       <c r="M44" t="n">
-        <v>1706.461699841956</v>
+        <v>1326.033539731526</v>
       </c>
       <c r="N44" t="n">
-        <v>2043.98797299421</v>
+        <v>1993.577939758536</v>
       </c>
       <c r="O44" t="n">
-        <v>2349.369200366164</v>
+        <v>2298.959167130491</v>
       </c>
       <c r="P44" t="n">
-        <v>2575.504011824775</v>
+        <v>2525.093978589101</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2646.739057782548</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X44" t="n">
         <v>2323.683332757142</v>
@@ -7722,7 +7722,7 @@
         <v>84.76436170076421</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
         <v>88.33865754925495</v>
@@ -7731,13 +7731,13 @@
         <v>225.2811705574794</v>
       </c>
       <c r="L45" t="n">
-        <v>687.7938644042756</v>
+        <v>822.8717620583769</v>
       </c>
       <c r="M45" t="n">
-        <v>1355.338264431286</v>
+        <v>1111.163004340488</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.668362974987</v>
+        <v>1778.707404367497</v>
       </c>
       <c r="O45" t="n">
         <v>2317.263676121849</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2066.718496146435</v>
+        <v>424.0226311188263</v>
       </c>
       <c r="C46" t="n">
-        <v>1897.782313218528</v>
+        <v>424.0226311188263</v>
       </c>
       <c r="D46" t="n">
-        <v>1747.665673806192</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E46" t="n">
-        <v>1655.747450733526</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>1508.857503235616</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G46" t="n">
-        <v>1508.857503235616</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H46" t="n">
-        <v>1357.868337648253</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I46" t="n">
-        <v>1357.868337648253</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
-        <v>1365.799603272329</v>
+        <v>61.87424744444019</v>
       </c>
       <c r="K46" t="n">
-        <v>1508.6699457948</v>
+        <v>204.744589966912</v>
       </c>
       <c r="L46" t="n">
-        <v>1747.021230289195</v>
+        <v>443.0958744613064</v>
       </c>
       <c r="M46" t="n">
-        <v>2008.718363566952</v>
+        <v>704.793007739064</v>
       </c>
       <c r="N46" t="n">
-        <v>2269.627540359071</v>
+        <v>965.7021845311831</v>
       </c>
       <c r="O46" t="n">
-        <v>2494.603098986078</v>
+        <v>1190.67774315819</v>
       </c>
       <c r="P46" t="n">
-        <v>2663.587872891342</v>
+        <v>1359.662517063454</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>1393.223735190334</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>1393.223735190334</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>1192.184187040056</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>968.1242893616737</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>968.1242893616737</v>
       </c>
       <c r="V46" t="n">
-        <v>2697.149091018222</v>
+        <v>713.4398011557869</v>
       </c>
       <c r="W46" t="n">
-        <v>2697.149091018222</v>
+        <v>424.0226311188263</v>
       </c>
       <c r="X46" t="n">
-        <v>2469.159540120205</v>
+        <v>424.0226311188263</v>
       </c>
       <c r="Y46" t="n">
-        <v>2248.366960976675</v>
+        <v>424.0226311188263</v>
       </c>
     </row>
   </sheetData>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>116.1590522440892</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>343.3666966990941</v>
       </c>
       <c r="N11" t="n">
-        <v>251.062843416882</v>
+        <v>333.3516433078343</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>14.79719438240323</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.0839977221204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>360.822526750817</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.87043604728461</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.972579954064301</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>39.49423573548469</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.1590522440892</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>343.3666966990941</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>333.3516433078343</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>256.416989019947</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>14.79719438240323</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.24801271080651</v>
       </c>
       <c r="M15" t="n">
-        <v>383.0839977221201</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.33233806494488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>39.49423573548469</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>116.1590522440887</v>
+        <v>116.1590522440892</v>
       </c>
       <c r="M17" t="n">
-        <v>343.3666966990937</v>
+        <v>343.3666966990941</v>
       </c>
       <c r="N17" t="n">
-        <v>333.351643307834</v>
+        <v>333.3516433078343</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3980244407309</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.08399772212</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>111.9639397603352</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>39.49423573548469</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.0192535229135</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>161.1616217925676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>174.798932386121</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>322.0412274961838</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720729</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>151.7769584128507</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>419.5482423491713</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>66.29690334602577</v>
       </c>
       <c r="P36" t="n">
-        <v>246.6416768593914</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>218.3390480512151</v>
       </c>
       <c r="M39" t="n">
-        <v>138.1396478192971</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>39.49423573548468</v>
+        <v>39.49423573548469</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298192</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>138.1396478192971</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>39.8704360472841</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>39.49423573548468</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>65.23982675350916</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>405.6315595952361</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>63.10042008461596</v>
+        <v>343.3666966990937</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>333.3516433078339</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>14.79719438240321</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>234.3980244407305</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.0839977221202</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>360.8225267508168</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>279.6814693853044</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>9.550079694233943</v>
+        <v>412.106298004153</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>306.7392659739218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>136.1812042297409</v>
       </c>
       <c r="T11" t="n">
-        <v>209.1034356048073</v>
+        <v>111.6334805257136</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.853553113659558</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5571666351924</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.4792739314896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.3318159403029</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>199.0291526687759</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.819298701598</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2408213897673</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.3042120494104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>412.106298004153</v>
       </c>
       <c r="H14" t="n">
-        <v>306.7392659739218</v>
+        <v>225.6172594452842</v>
       </c>
       <c r="I14" t="n">
         <v>87.24515532326878</v>
@@ -23549,7 +23549,7 @@
         <v>209.1034356048073</v>
       </c>
       <c r="U14" t="n">
-        <v>169.967931218322</v>
+        <v>251.0899377469579</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.853553113659558</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>112.8239574746661</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>199.0291526687759</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.6142489910881</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>88.11443848125896</v>
+        <v>412.106298004153</v>
       </c>
       <c r="H17" t="n">
         <v>306.7392659739218</v>
@@ -23786,13 +23786,13 @@
         <v>209.1034356048073</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0899377469579</v>
+        <v>169.9679312183206</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>19.43438187654318</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>47.09006541872057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>221.819298701598</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2408213897673</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>178.647608965275</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>136.1812042297409</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.46640473553614</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>11.5757240509445</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>112.8239574746661</v>
       </c>
       <c r="S22" t="n">
-        <v>199.0291526687759</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.819298701598</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2408213897673</v>
+        <v>65.59758344212369</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>91.402453642008</v>
       </c>
       <c r="I23" t="n">
         <v>87.24515532326878</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>91.40245364200644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.7392510280306</v>
+        <v>89.05874830776935</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>112.8239574746661</v>
       </c>
       <c r="S25" t="n">
-        <v>199.0291526687759</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.819298701598</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>91.402453642008</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>87.24515532326878</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>178.6476089652748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.05759818679944</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3261574558867</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5571666351924</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>149.4792739314896</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>91.402453642008</v>
+        <v>91.40245364200624</v>
       </c>
       <c r="I29" t="n">
         <v>87.24515532326878</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5571666351924</v>
+        <v>112.3410358749545</v>
       </c>
       <c r="H31" t="n">
-        <v>149.4792739314896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>112.3318159403029</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>112.8239574746661</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>199.0291526687759</v>
       </c>
       <c r="T31" t="n">
-        <v>221.819298701598</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2408213897673</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>47.05759818679996</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>178.6476089652768</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>91.402453642008</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.24515532326878</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1672389628215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>51.01091444979328</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>199.0291526687759</v>
       </c>
       <c r="T34" t="n">
-        <v>221.819298701598</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2408213897673</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91.40245364200808</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>91.40245364200821</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>61.75708044674209</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5571666351924</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>149.4792739314896</v>
       </c>
       <c r="I37" t="n">
-        <v>45.57924239143888</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2408213897673</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25439,10 +25439,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>136.1812042297409</v>
       </c>
       <c r="T38" t="n">
-        <v>178.6476089652754</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>42.46640473553583</v>
       </c>
     </row>
     <row r="39">
@@ -25567,7 +25567,7 @@
         <v>149.4792739314896</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.3318159403029</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.017741999259</v>
+        <v>32.6859260589568</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>91.40245364200712</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>87.24515532326876</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>136.1812042297409</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>42.46640473553492</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>4.14580584584624</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5571666351924</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.4792739314896</v>
+        <v>119.5384391382051</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3318159403029</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>221.819298701598</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2408213897673</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>88.11443848125805</v>
+        <v>88.1144384812585</v>
       </c>
       <c r="H44" t="n">
         <v>306.7392659739218</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.09163088223555</v>
       </c>
       <c r="E46" t="n">
-        <v>55.43492180462981</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>166.5571666351924</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>149.4792739314896</v>
       </c>
       <c r="I46" t="n">
         <v>112.3318159403029</v>
@@ -26071,25 +26071,25 @@
         <v>112.823957474666</v>
       </c>
       <c r="S46" t="n">
-        <v>199.0291526687759</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.819298701598</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2408213897673</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739673.0917388333</v>
+        <v>739673.0917388332</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739673.0917388331</v>
+        <v>739673.0917388332</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>943856.8726877959</v>
+        <v>943856.8726877962</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>943856.8726877961</v>
+        <v>943856.8726877959</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>943856.8726877959</v>
+        <v>943856.872687796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>943856.872687796</v>
+        <v>943856.8726877959</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>943856.8726877961</v>
+        <v>943856.872687796</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>943856.872687796</v>
+        <v>943856.8726877961</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739673.0917388333</v>
+        <v>739673.0917388331</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>352155.4763080455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>352155.4763080453</v>
+      </c>
+      <c r="G2" t="n">
         <v>352155.4763080454</v>
       </c>
-      <c r="F2" t="n">
-        <v>352155.4763080454</v>
-      </c>
-      <c r="G2" t="n">
-        <v>352155.4763080453</v>
-      </c>
       <c r="H2" t="n">
+        <v>440560.3272970227</v>
+      </c>
+      <c r="I2" t="n">
         <v>440560.3272970224</v>
       </c>
-      <c r="I2" t="n">
-        <v>440560.3272970225</v>
-      </c>
       <c r="J2" t="n">
-        <v>440560.3272970226</v>
+        <v>440560.3272970227</v>
       </c>
       <c r="K2" t="n">
         <v>440560.3272970226</v>
@@ -26344,16 +26344,16 @@
         <v>440560.3272970224</v>
       </c>
       <c r="M2" t="n">
+        <v>440560.3272970225</v>
+      </c>
+      <c r="N2" t="n">
         <v>440560.3272970224</v>
-      </c>
-      <c r="N2" t="n">
-        <v>440560.3272970227</v>
       </c>
       <c r="O2" t="n">
         <v>440560.3272970227</v>
       </c>
       <c r="P2" t="n">
-        <v>352155.4763080456</v>
+        <v>352155.4763080455</v>
       </c>
     </row>
     <row r="3">
@@ -26384,7 +26384,7 @@
         <v>134285.8816079726</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21309.70691721911</v>
+        <v>20581.15206380074</v>
       </c>
       <c r="F4" t="n">
-        <v>21309.7069172191</v>
+        <v>20581.15206380074</v>
       </c>
       <c r="G4" t="n">
-        <v>21309.7069172191</v>
+        <v>20581.15206380074</v>
       </c>
       <c r="H4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935095</v>
       </c>
       <c r="I4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935095</v>
       </c>
       <c r="J4" t="n">
-        <v>45930.37806001252</v>
+        <v>44346.84575935098</v>
       </c>
       <c r="K4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935095</v>
       </c>
       <c r="L4" t="n">
-        <v>45930.37806001252</v>
+        <v>44346.84575935095</v>
       </c>
       <c r="M4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935094</v>
       </c>
       <c r="N4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935094</v>
       </c>
       <c r="O4" t="n">
-        <v>45930.37806001253</v>
+        <v>44346.84575935095</v>
       </c>
       <c r="P4" t="n">
-        <v>21309.7069172191</v>
+        <v>20581.15206380072</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26479,22 @@
         <v>58330.15854165512</v>
       </c>
       <c r="F5" t="n">
-        <v>58330.1585416551</v>
+        <v>58330.15854165512</v>
       </c>
       <c r="G5" t="n">
-        <v>58330.1585416551</v>
+        <v>58330.15854165512</v>
       </c>
       <c r="H5" t="n">
+        <v>88590.75623025978</v>
+      </c>
+      <c r="I5" t="n">
         <v>88590.75623025975</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>88590.75623025978</v>
       </c>
-      <c r="J5" t="n">
-        <v>88590.75623025975</v>
-      </c>
       <c r="K5" t="n">
-        <v>88590.75623025975</v>
+        <v>88590.75623025978</v>
       </c>
       <c r="L5" t="n">
         <v>88590.75623025975</v>
@@ -26503,7 +26503,7 @@
         <v>88590.75623025975</v>
       </c>
       <c r="N5" t="n">
-        <v>88590.75623025977</v>
+        <v>88590.75623025975</v>
       </c>
       <c r="O5" t="n">
         <v>88590.75623025977</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394865.6505139611</v>
+        <v>-392934.5359984207</v>
       </c>
       <c r="C6" t="n">
-        <v>195102.2287005832</v>
+        <v>197033.3432161236</v>
       </c>
       <c r="D6" t="n">
-        <v>195102.2287005833</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="E6" t="n">
-        <v>-62801.23283266331</v>
+        <v>-62072.67797924488</v>
       </c>
       <c r="F6" t="n">
-        <v>272515.6108491712</v>
+        <v>273244.1657025894</v>
       </c>
       <c r="G6" t="n">
-        <v>272515.6108491711</v>
+        <v>273244.1657025896</v>
       </c>
       <c r="H6" t="n">
-        <v>171753.3113987776</v>
+        <v>173336.8436994394</v>
       </c>
       <c r="I6" t="n">
-        <v>306039.1930067501</v>
+        <v>307622.7253074119</v>
       </c>
       <c r="J6" t="n">
-        <v>129615.9738141574</v>
+        <v>131199.506114819</v>
       </c>
       <c r="K6" t="n">
-        <v>306039.1930067503</v>
+        <v>307622.7253074119</v>
       </c>
       <c r="L6" t="n">
-        <v>306039.1930067502</v>
+        <v>307622.7253074117</v>
       </c>
       <c r="M6" t="n">
-        <v>306039.1930067501</v>
+        <v>307622.7253074119</v>
       </c>
       <c r="N6" t="n">
-        <v>306039.1930067504</v>
+        <v>307622.7253074117</v>
       </c>
       <c r="O6" t="n">
-        <v>306039.1930067504</v>
+        <v>307622.725307412</v>
       </c>
       <c r="P6" t="n">
-        <v>272515.6108491714</v>
+        <v>273244.1657025897</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26771,7 +26771,7 @@
         <v>795.1143283567955</v>
       </c>
       <c r="N3" t="n">
-        <v>795.1143283567956</v>
+        <v>795.1143283567955</v>
       </c>
       <c r="O3" t="n">
         <v>795.1143283567956</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,10 +26799,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
         <v>1171.99447158029</v>
@@ -26829,7 +26829,7 @@
         <v>1171.99447158029</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -27030,10 +27030,10 @@
         <v>497.7071988257345</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.8388043680905</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>379.3216775365941</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>193.6336260352629</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27673,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>309.7414505636442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>200.2696808511647</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.6532749170201</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>53.30008710312399</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>320.0231654265993</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>104.5081747560185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>57.68220386686028</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31282,40 +31282,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -33895,22 +33895,22 @@
         <v>271.2938079452164</v>
       </c>
       <c r="K38" t="n">
-        <v>406.5990924450884</v>
+        <v>406.5990924450883</v>
       </c>
       <c r="L38" t="n">
-        <v>504.4221281293067</v>
+        <v>504.4221281293066</v>
       </c>
       <c r="M38" t="n">
-        <v>561.2668092827344</v>
+        <v>561.2668092827342</v>
       </c>
       <c r="N38" t="n">
-        <v>570.3486930433123</v>
+        <v>570.3486930433122</v>
       </c>
       <c r="O38" t="n">
-        <v>538.5640976559841</v>
+        <v>538.564097655984</v>
       </c>
       <c r="P38" t="n">
-        <v>459.6519972286137</v>
+        <v>459.6519972286136</v>
       </c>
       <c r="Q38" t="n">
         <v>345.1795072415674</v>
@@ -33919,7 +33919,7 @@
         <v>200.7883434317289</v>
       </c>
       <c r="S38" t="n">
-        <v>72.83886535650446</v>
+        <v>72.83886535650444</v>
       </c>
       <c r="T38" t="n">
         <v>13.99241395932411</v>
@@ -33968,13 +33968,13 @@
         <v>16.51737500982702</v>
       </c>
       <c r="I39" t="n">
-        <v>58.8834667698193</v>
+        <v>58.88346676981929</v>
       </c>
       <c r="J39" t="n">
         <v>161.5807334635258</v>
       </c>
       <c r="K39" t="n">
-        <v>276.1672096897372</v>
+        <v>276.1672096897371</v>
       </c>
       <c r="L39" t="n">
         <v>371.3408945783318</v>
@@ -33998,10 +33998,10 @@
         <v>106.1852682284793</v>
       </c>
       <c r="S39" t="n">
-        <v>31.76706774142479</v>
+        <v>31.76706774142478</v>
       </c>
       <c r="T39" t="n">
-        <v>6.893491205282027</v>
+        <v>6.893491205282026</v>
       </c>
       <c r="U39" t="n">
         <v>0.112516178541056</v>
@@ -34047,7 +34047,7 @@
         <v>12.74789857594994</v>
       </c>
       <c r="I40" t="n">
-        <v>43.11865898695542</v>
+        <v>43.11865898695541</v>
       </c>
       <c r="J40" t="n">
         <v>101.3705595349311</v>
@@ -34056,7 +34056,7 @@
         <v>166.5829691213089</v>
       </c>
       <c r="L40" t="n">
-        <v>213.1688479663449</v>
+        <v>213.1688479663448</v>
       </c>
       <c r="M40" t="n">
         <v>224.756661702561</v>
@@ -34068,13 +34068,13 @@
         <v>202.6629111031387</v>
       </c>
       <c r="P40" t="n">
-        <v>173.413131548505</v>
+        <v>173.4131315485049</v>
       </c>
       <c r="Q40" t="n">
         <v>120.0622635818761</v>
       </c>
       <c r="R40" t="n">
-        <v>64.46943390250344</v>
+        <v>64.46943390250343</v>
       </c>
       <c r="S40" t="n">
         <v>24.98744536819633</v>
@@ -34083,7 +34083,7 @@
         <v>6.126290726683504</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07820796672361932</v>
+        <v>0.07820796672361931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530451</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>259.3445185906039</v>
+        <v>90.24790341853009</v>
       </c>
       <c r="K11" t="n">
         <v>186.5092414001078</v>
       </c>
       <c r="L11" t="n">
-        <v>268.6557131593194</v>
+        <v>384.8147654034086</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9205760554615</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N11" t="n">
-        <v>591.9984728636033</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O11" t="n">
         <v>308.4658862342973</v>
       </c>
       <c r="P11" t="n">
-        <v>550.2177096448268</v>
+        <v>228.4190014733441</v>
       </c>
       <c r="Q11" t="n">
         <v>122.8738173671179</v>
       </c>
       <c r="R11" t="n">
-        <v>50.91922549057921</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.74310679685911</v>
+        <v>160.8341421372679</v>
       </c>
       <c r="K12" t="n">
         <v>402.7910077279568</v>
       </c>
       <c r="L12" t="n">
-        <v>232.7865147984576</v>
+        <v>603.6268601019167</v>
       </c>
       <c r="M12" t="n">
-        <v>674.2872727545556</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N12" t="n">
-        <v>674.2872727545556</v>
+        <v>313.4647460037386</v>
       </c>
       <c r="O12" t="n">
         <v>264.3147647099997</v>
       </c>
       <c r="P12" t="n">
-        <v>192.6075513403694</v>
+        <v>232.477987387654</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.30219655196898</v>
+        <v>288.4069043337538</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>90.24790341853009</v>
+        <v>206.4069556626193</v>
       </c>
       <c r="K14" t="n">
-        <v>510.6546539712725</v>
+        <v>186.5092414001078</v>
       </c>
       <c r="L14" t="n">
         <v>268.6557131593194</v>
       </c>
       <c r="M14" t="n">
-        <v>330.9205760554615</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N14" t="n">
-        <v>340.9356294467213</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O14" t="n">
         <v>308.4658862342973</v>
       </c>
       <c r="P14" t="n">
-        <v>484.835990493291</v>
+        <v>228.4190014733441</v>
       </c>
       <c r="Q14" t="n">
-        <v>335.1888080270226</v>
+        <v>122.8738173671179</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>34.74310679685911</v>
+        <v>160.8341421372679</v>
       </c>
       <c r="K15" t="n">
         <v>402.7910077279568</v>
       </c>
       <c r="L15" t="n">
-        <v>232.7865147984576</v>
+        <v>325.0345275092641</v>
       </c>
       <c r="M15" t="n">
-        <v>674.2872727545553</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N15" t="n">
         <v>313.4647460037386</v>
@@ -35744,7 +35744,7 @@
         <v>511.0703199803066</v>
       </c>
       <c r="Q15" t="n">
-        <v>123.6619546628496</v>
+        <v>288.4069043337538</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>186.5092414001078</v>
       </c>
       <c r="L17" t="n">
-        <v>384.814765403408</v>
+        <v>384.8147654034086</v>
       </c>
       <c r="M17" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N17" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O17" t="n">
         <v>308.4658862342973</v>
@@ -35966,22 +35966,22 @@
         <v>138.3257707153782</v>
       </c>
       <c r="L18" t="n">
-        <v>467.1845392391884</v>
+        <v>603.6268601019167</v>
       </c>
       <c r="M18" t="n">
-        <v>674.2872727545553</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N18" t="n">
-        <v>313.4647460037386</v>
+        <v>425.4286857640737</v>
       </c>
       <c r="O18" t="n">
-        <v>658.1770839867293</v>
+        <v>264.3147647099997</v>
       </c>
       <c r="P18" t="n">
-        <v>192.6075513403694</v>
+        <v>511.0703199803066</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.32961659790467</v>
+        <v>288.4069043337538</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>686.3169277097697</v>
       </c>
       <c r="M26" t="n">
-        <v>780.4341095482931</v>
+        <v>780.434109548294</v>
       </c>
       <c r="N26" t="n">
         <v>778.2825538587055</v>
@@ -36616,7 +36616,7 @@
         <v>335.1888080270226</v>
       </c>
       <c r="R26" t="n">
-        <v>50.91922549057921</v>
+        <v>50.91922549058147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>138.3257707153782</v>
       </c>
       <c r="L27" t="n">
-        <v>603.6268601019167</v>
+        <v>531.805768321371</v>
       </c>
       <c r="M27" t="n">
         <v>291.2032750324352</v>
       </c>
       <c r="N27" t="n">
-        <v>792.8071203472921</v>
+        <v>313.4647460037386</v>
       </c>
       <c r="O27" t="n">
-        <v>264.3147647099997</v>
+        <v>658.1770839867293</v>
       </c>
       <c r="P27" t="n">
-        <v>353.769173132937</v>
+        <v>511.0703199803066</v>
       </c>
       <c r="Q27" t="n">
         <v>78.32961659790467</v>
@@ -36917,16 +36917,16 @@
         <v>603.6268601019167</v>
       </c>
       <c r="M30" t="n">
-        <v>756.9083387824351</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N30" t="n">
-        <v>488.2636783898595</v>
+        <v>313.4647460037386</v>
       </c>
       <c r="O30" t="n">
-        <v>264.3147647099997</v>
+        <v>586.3559922061835</v>
       </c>
       <c r="P30" t="n">
-        <v>192.6075513403694</v>
+        <v>511.0703199803066</v>
       </c>
       <c r="Q30" t="n">
         <v>78.32961659790467</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>259.3445185906029</v>
+        <v>259.3445185906039</v>
       </c>
       <c r="K32" t="n">
         <v>510.6546539712725</v>
@@ -37090,7 +37090,7 @@
         <v>335.1888080270226</v>
       </c>
       <c r="R32" t="n">
-        <v>50.91922549057921</v>
+        <v>50.91922549057963</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>34.74310679685911</v>
+        <v>160.8341421372679</v>
       </c>
       <c r="K33" t="n">
         <v>138.3257707153782</v>
       </c>
       <c r="L33" t="n">
-        <v>384.5634732113082</v>
+        <v>232.7865147984576</v>
       </c>
       <c r="M33" t="n">
         <v>756.9083387824351</v>
       </c>
       <c r="N33" t="n">
-        <v>313.4647460037386</v>
+        <v>733.0129883529099</v>
       </c>
       <c r="O33" t="n">
-        <v>658.1770839867293</v>
+        <v>264.3147647099997</v>
       </c>
       <c r="P33" t="n">
         <v>192.6075513403694</v>
@@ -37388,19 +37388,19 @@
         <v>138.3257707153782</v>
       </c>
       <c r="L36" t="n">
-        <v>603.6268601019167</v>
+        <v>232.7865147984576</v>
       </c>
       <c r="M36" t="n">
-        <v>291.2032750324352</v>
+        <v>756.9083387824351</v>
       </c>
       <c r="N36" t="n">
-        <v>313.4647460037386</v>
+        <v>792.8071203472921</v>
       </c>
       <c r="O36" t="n">
-        <v>658.1770839867293</v>
+        <v>330.6116680560255</v>
       </c>
       <c r="P36" t="n">
-        <v>439.2492281997608</v>
+        <v>192.6075513403694</v>
       </c>
       <c r="Q36" t="n">
         <v>78.32961659790467</v>
@@ -37543,19 +37543,19 @@
         <v>259.3445185906039</v>
       </c>
       <c r="K38" t="n">
-        <v>510.6546539712726</v>
+        <v>510.6546539712725</v>
       </c>
       <c r="L38" t="n">
-        <v>686.3169277097699</v>
+        <v>686.3169277097697</v>
       </c>
       <c r="M38" t="n">
-        <v>780.4341095482941</v>
+        <v>780.434109548294</v>
       </c>
       <c r="N38" t="n">
-        <v>778.2825538587056</v>
+        <v>778.2825538587055</v>
       </c>
       <c r="O38" t="n">
-        <v>689.2660674970427</v>
+        <v>689.2660674970426</v>
       </c>
       <c r="P38" t="n">
         <v>550.2177096448268</v>
@@ -37564,7 +37564,7 @@
         <v>335.1888080270226</v>
       </c>
       <c r="R38" t="n">
-        <v>50.91922549057924</v>
+        <v>50.91922549057921</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>34.74310679685911</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3257707153782</v>
+        <v>402.7910077279568</v>
       </c>
       <c r="L39" t="n">
-        <v>232.7865147984576</v>
+        <v>451.1255628496727</v>
       </c>
       <c r="M39" t="n">
-        <v>429.3429228517323</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N39" t="n">
-        <v>792.8071203472921</v>
+        <v>313.4647460037386</v>
       </c>
       <c r="O39" t="n">
-        <v>658.1770839867293</v>
+        <v>264.3147647099997</v>
       </c>
       <c r="P39" t="n">
-        <v>192.6075513403695</v>
+        <v>511.0703199803066</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.32961659790473</v>
+        <v>288.4069043337538</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8.011379418258343</v>
+        <v>8.011379418258329</v>
       </c>
       <c r="K40" t="n">
         <v>144.3134772954261</v>
@@ -37710,16 +37710,16 @@
         <v>264.3405386644016</v>
       </c>
       <c r="N40" t="n">
-        <v>263.5446230223425</v>
+        <v>263.5446230223424</v>
       </c>
       <c r="O40" t="n">
-        <v>227.2480390171784</v>
+        <v>227.2480390171783</v>
       </c>
       <c r="P40" t="n">
-        <v>170.6916908133985</v>
+        <v>170.6916908133984</v>
       </c>
       <c r="Q40" t="n">
-        <v>33.90022033018174</v>
+        <v>33.90022033018172</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>335.1888080270226</v>
       </c>
       <c r="R41" t="n">
-        <v>50.91922549057871</v>
+        <v>50.91922549057924</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.74310679685911</v>
+        <v>160.8341421372679</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3257707153782</v>
+        <v>402.7910077279568</v>
       </c>
       <c r="L42" t="n">
-        <v>232.7865147984576</v>
+        <v>603.6268601019167</v>
       </c>
       <c r="M42" t="n">
-        <v>429.3429228517323</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N42" t="n">
-        <v>792.8071203472921</v>
+        <v>313.4647460037386</v>
       </c>
       <c r="O42" t="n">
-        <v>658.1770839867293</v>
+        <v>264.3147647099998</v>
       </c>
       <c r="P42" t="n">
-        <v>192.6075513403695</v>
+        <v>232.4779873876536</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.32961659790473</v>
+        <v>288.4069043337538</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>90.24790341853014</v>
+        <v>155.4877301720393</v>
       </c>
       <c r="K44" t="n">
-        <v>510.6546539712726</v>
+        <v>186.5092414001078</v>
       </c>
       <c r="L44" t="n">
-        <v>674.2872727545555</v>
+        <v>268.6557131593194</v>
       </c>
       <c r="M44" t="n">
-        <v>394.0209961400776</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="N44" t="n">
-        <v>340.9356294467214</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="O44" t="n">
         <v>308.4658862342974</v>
@@ -38038,7 +38038,7 @@
         <v>122.8738173671179</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>50.91922549057924</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>138.3257707153782</v>
       </c>
       <c r="L45" t="n">
-        <v>467.1845392391881</v>
+        <v>603.6268601019167</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2872727545555</v>
+        <v>291.2032750324352</v>
       </c>
       <c r="N45" t="n">
-        <v>313.4647460037386</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="O45" t="n">
-        <v>658.1770839867293</v>
+        <v>543.9962340953042</v>
       </c>
       <c r="P45" t="n">
         <v>192.6075513403695</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259069.581068273</v>
+        <v>1244166.195922826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2163932.952681958</v>
+        <v>1946591.810495321</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2491370.10151337</v>
+        <v>2401710.360431342</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10780878.06772554</v>
+        <v>10820840.15824163</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>33.04728899659137</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>337.5440355849931</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>98.77920426633925</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.8442372525923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.70191565295202</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>138.2970331133488</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.58354151325305</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>382.4894289659188</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.0821674241798</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>215.1086017454589</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>124.8673611388533</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.3753039909747</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1680073005601</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.1554074206774</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>100.7608054072935</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958668</v>
+        <v>48.4902228563</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183511</v>
+        <v>26.39080996272605</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>149.6145537370465</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>195.3758126711897</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8632169663345</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5654198538183</v>
+        <v>16.21012289091087</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2646981948392</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.0821674241798</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>124.8673611388533</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.3812319651814</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>158.4188286386024</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1680073005601</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>88.86517720252145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>232.2885415564692</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.1554074206774</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>100.7608054072935</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958668</v>
+        <v>48.49022285630002</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183511</v>
+        <v>26.39080996272607</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>149.6145537370465</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>195.3758126711897</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8632169663345</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>100.8178279662881</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.3488699256638</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2646981948392</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7188787253504</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>297.0081535565565</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.555681744495</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>58.64426104072204</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>214.0804408955269</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>228.5445831966964</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.80324981590326</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>92.19725101245524</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.54139430664161</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7644211441614789</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>225.3547008904247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>251.2854117097644</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>65.46775481770671</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>23.15332120599775</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>22.12658519496572</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>261.7225596912436</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>65.46775481770671</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.75667980149156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>70.79875628846304</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1998.219284210995</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.256767270584</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.219284210995</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2118.304160219349</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>898.8784838925781</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.904000283471</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="6">
@@ -4625,19 +4625,19 @@
         <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1394.624369323446</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4825,31 +4825,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2502.42642870695</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2502.42642870695</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2171.363541363379</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2171.363541363379</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2171.363541363379</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y8" t="n">
-        <v>1781.224209387568</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="9">
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>570.6683391887234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.3601518573251</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1666.984787215556</v>
+        <v>1558.064350355984</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.984787215556</v>
+        <v>1189.101833415573</v>
       </c>
       <c r="D11" t="n">
-        <v>1308.719088608805</v>
+        <v>830.8361348088222</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.719088608805</v>
+        <v>830.8361348088222</v>
       </c>
       <c r="F11" t="n">
-        <v>922.3661300573719</v>
+        <v>830.8361348088222</v>
       </c>
       <c r="G11" t="n">
-        <v>505.2783482937994</v>
+        <v>413.5814202389436</v>
       </c>
       <c r="H11" t="n">
-        <v>187.0552330663089</v>
+        <v>196.3000043344396</v>
       </c>
       <c r="I11" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J11" t="n">
-        <v>256.0021614801559</v>
+        <v>244.9249899080114</v>
       </c>
       <c r="K11" t="n">
-        <v>659.4692745002013</v>
+        <v>627.5801900992103</v>
       </c>
       <c r="L11" t="n">
-        <v>1212.2825327464</v>
+        <v>1154.574430166007</v>
       </c>
       <c r="M11" t="n">
-        <v>1844.000343729712</v>
+        <v>1757.563608632524</v>
       </c>
       <c r="N11" t="n">
-        <v>2471.308011789559</v>
+        <v>2355.677784866594</v>
       </c>
       <c r="O11" t="n">
-        <v>3018.469216556636</v>
+        <v>2875.272403132556</v>
       </c>
       <c r="P11" t="n">
-        <v>3129.203541806163</v>
+        <v>3281.060005668667</v>
       </c>
       <c r="Q11" t="n">
-        <v>3368.113123320981</v>
+        <v>3508.567835971816</v>
       </c>
       <c r="R11" t="n">
-        <v>3368.113123320981</v>
+        <v>3508.567835971816</v>
       </c>
       <c r="S11" t="n">
-        <v>3368.113123320981</v>
+        <v>3508.567835971816</v>
       </c>
       <c r="T11" t="n">
-        <v>3368.113123320981</v>
+        <v>3293.037225879922</v>
       </c>
       <c r="U11" t="n">
-        <v>3114.421420066132</v>
+        <v>3039.332168000568</v>
       </c>
       <c r="V11" t="n">
-        <v>2783.358532722561</v>
+        <v>2708.269280656998</v>
       </c>
       <c r="W11" t="n">
-        <v>2430.589877452447</v>
+        <v>2708.269280656998</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.124119191367</v>
+        <v>2334.803522395918</v>
       </c>
       <c r="Y11" t="n">
-        <v>1666.984787215556</v>
+        <v>1944.664190420106</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>980.7839468930255</v>
+        <v>987.6201376143962</v>
       </c>
       <c r="C12" t="n">
-        <v>806.3309176118985</v>
+        <v>813.1671083332692</v>
       </c>
       <c r="D12" t="n">
-        <v>657.3965079506472</v>
+        <v>664.2326986720179</v>
       </c>
       <c r="E12" t="n">
-        <v>498.1590529451917</v>
+        <v>504.9952436665624</v>
       </c>
       <c r="F12" t="n">
-        <v>351.6244949720766</v>
+        <v>358.4606856934473</v>
       </c>
       <c r="G12" t="n">
-        <v>214.1830973312985</v>
+        <v>220.9299711271065</v>
       </c>
       <c r="H12" t="n">
-        <v>113.2671194761031</v>
+        <v>119.151379806608</v>
       </c>
       <c r="I12" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J12" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="K12" t="n">
-        <v>134.9700821297766</v>
+        <v>123.6434638319228</v>
       </c>
       <c r="L12" t="n">
-        <v>639.3316219958951</v>
+        <v>608.9977937181178</v>
       </c>
       <c r="M12" t="n">
-        <v>1279.876971463</v>
+        <v>1227.362625650828</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.082663715782</v>
+        <v>1877.800748070271</v>
       </c>
       <c r="O12" t="n">
-        <v>2502.518672468505</v>
+        <v>2406.408878431298</v>
       </c>
       <c r="P12" t="n">
-        <v>2626.970378705472</v>
+        <v>2652.551305128709</v>
       </c>
       <c r="Q12" t="n">
-        <v>2649.707319907449</v>
+        <v>2664.113903552064</v>
       </c>
       <c r="R12" t="n">
-        <v>2628.595420309636</v>
+        <v>2637.45651975133</v>
       </c>
       <c r="S12" t="n">
-        <v>2479.128631172271</v>
+        <v>2486.330707895728</v>
       </c>
       <c r="T12" t="n">
-        <v>2282.139335332359</v>
+        <v>2288.981402167253</v>
       </c>
       <c r="U12" t="n">
-        <v>2054.000547843525</v>
+        <v>2060.836738564895</v>
       </c>
       <c r="V12" t="n">
-        <v>1818.848439611782</v>
+        <v>1825.684630333152</v>
       </c>
       <c r="W12" t="n">
-        <v>1564.61108288358</v>
+        <v>1571.447273604951</v>
       </c>
       <c r="X12" t="n">
-        <v>1356.759582678047</v>
+        <v>1363.595773399418</v>
       </c>
       <c r="Y12" t="n">
-        <v>1148.999283913093</v>
+        <v>1155.835474634464</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1067.296943925764</v>
+        <v>233.4351657233173</v>
       </c>
       <c r="C13" t="n">
-        <v>959.6551056895842</v>
+        <v>217.0613042173467</v>
       </c>
       <c r="D13" t="n">
-        <v>809.5384662772484</v>
+        <v>217.0613042173467</v>
       </c>
       <c r="E13" t="n">
-        <v>661.6253726948553</v>
+        <v>217.0613042173467</v>
       </c>
       <c r="F13" t="n">
-        <v>514.7354251969449</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="G13" t="n">
-        <v>346.1285801923283</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="H13" t="n">
-        <v>191.8739370920933</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="I13" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J13" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="K13" t="n">
-        <v>168.4101920620294</v>
+        <v>162.6926803866492</v>
       </c>
       <c r="L13" t="n">
-        <v>353.2431869628477</v>
+        <v>336.6145553067943</v>
       </c>
       <c r="M13" t="n">
-        <v>558.5127876820857</v>
+        <v>530.3799098583211</v>
       </c>
       <c r="N13" t="n">
-        <v>764.3361525181899</v>
+        <v>724.9725737873279</v>
       </c>
       <c r="O13" t="n">
-        <v>938.4310479067888</v>
+        <v>888.6940991466063</v>
       </c>
       <c r="P13" t="n">
-        <v>1063.878624505404</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="Q13" t="n">
-        <v>1067.296943925764</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="R13" t="n">
-        <v>1067.296943925764</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="S13" t="n">
-        <v>1067.296943925764</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="T13" t="n">
-        <v>1067.296943925764</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.296943925764</v>
+        <v>716.1092048272214</v>
       </c>
       <c r="V13" t="n">
-        <v>1067.296943925764</v>
+        <v>461.4247166213346</v>
       </c>
       <c r="W13" t="n">
-        <v>1067.296943925764</v>
+        <v>461.4247166213346</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.296943925764</v>
+        <v>233.4351657233173</v>
       </c>
       <c r="Y13" t="n">
-        <v>1067.296943925764</v>
+        <v>233.4351657233173</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2128.145387764896</v>
+        <v>1779.291393232582</v>
       </c>
       <c r="C14" t="n">
-        <v>1759.182870824484</v>
+        <v>1410.32887629217</v>
       </c>
       <c r="D14" t="n">
-        <v>1400.917172217733</v>
+        <v>1410.32887629217</v>
       </c>
       <c r="E14" t="n">
-        <v>1015.128919619489</v>
+        <v>1024.540623693926</v>
       </c>
       <c r="F14" t="n">
-        <v>604.1430148298814</v>
+        <v>613.5547189043182</v>
       </c>
       <c r="G14" t="n">
-        <v>187.0552330663089</v>
+        <v>196.3000043344397</v>
       </c>
       <c r="H14" t="n">
-        <v>187.0552330663089</v>
+        <v>196.3000043344397</v>
       </c>
       <c r="I14" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J14" t="n">
-        <v>256.0021614801559</v>
+        <v>244.9249899080123</v>
       </c>
       <c r="K14" t="n">
-        <v>659.4692745002013</v>
+        <v>627.580190099211</v>
       </c>
       <c r="L14" t="n">
-        <v>1212.2825327464</v>
+        <v>1154.574430166007</v>
       </c>
       <c r="M14" t="n">
-        <v>1519.153243379862</v>
+        <v>1757.563608632524</v>
       </c>
       <c r="N14" t="n">
-        <v>2146.460911439709</v>
+        <v>2355.677784866594</v>
       </c>
       <c r="O14" t="n">
-        <v>2693.622116206786</v>
+        <v>2875.272403132556</v>
       </c>
       <c r="P14" t="n">
-        <v>3122.93716254608</v>
+        <v>3281.060005668667</v>
       </c>
       <c r="Q14" t="n">
-        <v>3368.113123320981</v>
+        <v>3508.567835971816</v>
       </c>
       <c r="R14" t="n">
-        <v>3368.113123320981</v>
+        <v>3498.081743077693</v>
       </c>
       <c r="S14" t="n">
-        <v>3368.113123320981</v>
+        <v>3338.062724250822</v>
       </c>
       <c r="T14" t="n">
-        <v>3368.113123320981</v>
+        <v>3338.062724250822</v>
       </c>
       <c r="U14" t="n">
-        <v>3368.113123320981</v>
+        <v>3084.357666371468</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.113123320981</v>
+        <v>2753.294779027898</v>
       </c>
       <c r="W14" t="n">
-        <v>3278.350318065909</v>
+        <v>2400.526123757783</v>
       </c>
       <c r="X14" t="n">
-        <v>2904.884559804829</v>
+        <v>2165.891233296703</v>
       </c>
       <c r="Y14" t="n">
-        <v>2514.745227829017</v>
+        <v>2165.891233296703</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>980.7839468930255</v>
+        <v>987.6201376143962</v>
       </c>
       <c r="C15" t="n">
-        <v>806.3309176118985</v>
+        <v>813.1671083332692</v>
       </c>
       <c r="D15" t="n">
-        <v>657.3965079506472</v>
+        <v>664.2326986720179</v>
       </c>
       <c r="E15" t="n">
-        <v>498.1590529451917</v>
+        <v>504.9952436665624</v>
       </c>
       <c r="F15" t="n">
-        <v>351.6244949720766</v>
+        <v>358.4606856934473</v>
       </c>
       <c r="G15" t="n">
-        <v>214.1830973312985</v>
+        <v>220.9299711271065</v>
       </c>
       <c r="H15" t="n">
-        <v>113.2671194761031</v>
+        <v>119.151379806608</v>
       </c>
       <c r="I15" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J15" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="K15" t="n">
-        <v>134.9700821297766</v>
+        <v>385.4640484743755</v>
       </c>
       <c r="L15" t="n">
-        <v>339.8155597520254</v>
+        <v>503.6864365101459</v>
       </c>
       <c r="M15" t="n">
-        <v>980.36090921913</v>
+        <v>1122.051268442856</v>
       </c>
       <c r="N15" t="n">
-        <v>1653.566601471913</v>
+        <v>1772.489390862299</v>
       </c>
       <c r="O15" t="n">
-        <v>2203.002610224636</v>
+        <v>2301.097521223326</v>
       </c>
       <c r="P15" t="n">
-        <v>2626.970378705472</v>
+        <v>2652.551305128709</v>
       </c>
       <c r="Q15" t="n">
-        <v>2649.707319907449</v>
+        <v>2664.113903552064</v>
       </c>
       <c r="R15" t="n">
-        <v>2628.595420309636</v>
+        <v>2637.45651975133</v>
       </c>
       <c r="S15" t="n">
-        <v>2479.128631172271</v>
+        <v>2486.330707895728</v>
       </c>
       <c r="T15" t="n">
-        <v>2282.139335332359</v>
+        <v>2288.981402167253</v>
       </c>
       <c r="U15" t="n">
-        <v>2054.000547843525</v>
+        <v>2060.836738564895</v>
       </c>
       <c r="V15" t="n">
-        <v>1818.848439611782</v>
+        <v>1825.684630333152</v>
       </c>
       <c r="W15" t="n">
-        <v>1564.61108288358</v>
+        <v>1571.447273604951</v>
       </c>
       <c r="X15" t="n">
-        <v>1356.759582678047</v>
+        <v>1363.595773399418</v>
       </c>
       <c r="Y15" t="n">
-        <v>1148.999283913093</v>
+        <v>1155.835474634464</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>503.7495012099372</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="C16" t="n">
-        <v>503.7495012099372</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="D16" t="n">
-        <v>503.7495012099372</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="E16" t="n">
-        <v>503.7495012099372</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="F16" t="n">
-        <v>503.7495012099372</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="G16" t="n">
-        <v>364.0031679516909</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="H16" t="n">
-        <v>209.748524851456</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="I16" t="n">
-        <v>85.23685022578225</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="J16" t="n">
-        <v>67.36226246641962</v>
+        <v>70.17135671943632</v>
       </c>
       <c r="K16" t="n">
-        <v>168.4101920620294</v>
+        <v>162.6926803866492</v>
       </c>
       <c r="L16" t="n">
-        <v>353.2431869628477</v>
+        <v>336.6145553067943</v>
       </c>
       <c r="M16" t="n">
-        <v>558.5127876820857</v>
+        <v>530.379909858321</v>
       </c>
       <c r="N16" t="n">
-        <v>764.3361525181899</v>
+        <v>724.9725737873277</v>
       </c>
       <c r="O16" t="n">
-        <v>938.4310479067888</v>
+        <v>888.694099146606</v>
       </c>
       <c r="P16" t="n">
-        <v>1063.878624505404</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="Q16" t="n">
-        <v>1067.296943925764</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="R16" t="n">
-        <v>936.8189826451669</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="S16" t="n">
-        <v>729.3786978975722</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="T16" t="n">
-        <v>503.7495012099372</v>
+        <v>1005.265465630089</v>
       </c>
       <c r="U16" t="n">
-        <v>503.7495012099372</v>
+        <v>716.1092048272212</v>
       </c>
       <c r="V16" t="n">
-        <v>503.7495012099372</v>
+        <v>461.4247166213344</v>
       </c>
       <c r="W16" t="n">
-        <v>503.7495012099372</v>
+        <v>172.0075465843738</v>
       </c>
       <c r="X16" t="n">
-        <v>503.7495012099372</v>
+        <v>172.0075465843738</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.7495012099372</v>
+        <v>172.0075465843738</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759904</v>
+        <v>1683.746432256229</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819493</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212742</v>
+        <v>1314.783915315817</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614498</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248905</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G17" t="n">
-        <v>255.526016061318</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662064</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604023</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331032</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331032</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060918</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799838</v>
+        <v>2370.354508236064</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.216010824026</v>
+        <v>2070.346272320351</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835163</v>
+        <v>146.3595258323555</v>
       </c>
       <c r="K18" t="n">
-        <v>462.2869926505415</v>
+        <v>475.7879301381648</v>
       </c>
       <c r="L18" t="n">
-        <v>599.5165906662354</v>
+        <v>613.0175281538579</v>
       </c>
       <c r="M18" t="n">
-        <v>779.0139270208401</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273623</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026346</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507182</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
         <v>2635.224952969837</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>322.6495272101635</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="C19" t="n">
-        <v>322.6495272101635</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D19" t="n">
-        <v>172.5328877978277</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E19" t="n">
-        <v>172.5328877978277</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F19" t="n">
-        <v>172.5328877978277</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G19" t="n">
-        <v>172.5328877978277</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>172.5328877978277</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222304</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669898</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>866.4861918383706</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>866.4861918383706</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>577.3340154160503</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V19" t="n">
-        <v>322.6495272101635</v>
+        <v>819.2419883800757</v>
       </c>
       <c r="W19" t="n">
-        <v>322.6495272101635</v>
+        <v>529.8248183431151</v>
       </c>
       <c r="X19" t="n">
-        <v>322.6495272101635</v>
+        <v>301.8352674450978</v>
       </c>
       <c r="Y19" t="n">
-        <v>322.6495272101635</v>
+        <v>242.5986401312371</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.153123480456</v>
+        <v>1947.516812454453</v>
       </c>
       <c r="C20" t="n">
-        <v>1883.190606540044</v>
+        <v>1578.554295514042</v>
       </c>
       <c r="D20" t="n">
-        <v>1524.924907933294</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="E20" t="n">
-        <v>1139.136655335049</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F20" t="n">
-        <v>728.1507505454417</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540003</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604023</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331032</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331032</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331032</v>
+        <v>3097.721742755466</v>
       </c>
       <c r="V20" t="n">
-        <v>3368.526868987462</v>
+        <v>3097.721742755466</v>
       </c>
       <c r="W20" t="n">
-        <v>3015.758213717347</v>
+        <v>3097.721742755466</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.292455456267</v>
+        <v>2724.255984494387</v>
       </c>
       <c r="Y20" t="n">
-        <v>2252.153123480456</v>
+        <v>2334.116652518575</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>403.4201994324305</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>907.781739298549</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620958</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273623</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026346</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507182</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
         <v>2635.224952969837</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3182.183035396054</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="C22" t="n">
-        <v>3182.183035396054</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D22" t="n">
-        <v>3182.183035396054</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E22" t="n">
-        <v>3182.183035396054</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F22" t="n">
-        <v>3147.028237602212</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>2978.421392597596</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>2824.166749497361</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871687</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467297</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.535999368115</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087353</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923458</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.723860312057</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910673</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>3699.589756331032</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>3699.589756331032</v>
+        <v>980.7979402097451</v>
       </c>
       <c r="W22" t="n">
-        <v>3410.172586294072</v>
+        <v>691.3807701727845</v>
       </c>
       <c r="X22" t="n">
-        <v>3182.183035396054</v>
+        <v>463.3912192747672</v>
       </c>
       <c r="Y22" t="n">
-        <v>3182.183035396054</v>
+        <v>242.5986401312371</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>190.6805289025653</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>339.7502131046251</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324574</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324574</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>3540.192194764783</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4036.945405494735</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4036.945405494735</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>4036.945405494735</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,10 +6679,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,10 +6937,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.274692278279</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2315.738453580939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1047.499844346979</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>758.0826743100185</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>758.0826743100185</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7177,16 +7177,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7365,19 +7365,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2096.844751540551</v>
+        <v>2424.500946143419</v>
       </c>
       <c r="C41" t="n">
-        <v>1727.88223460014</v>
+        <v>2055.538429203007</v>
       </c>
       <c r="D41" t="n">
-        <v>1369.616535993389</v>
+        <v>1697.272730596256</v>
       </c>
       <c r="E41" t="n">
-        <v>983.828283395145</v>
+        <v>1311.484477998012</v>
       </c>
       <c r="F41" t="n">
-        <v>572.8423786055375</v>
+        <v>900.4985732084047</v>
       </c>
       <c r="G41" t="n">
-        <v>156.7166040704956</v>
+        <v>484.3727986733628</v>
       </c>
       <c r="H41" t="n">
-        <v>90.58755880008482</v>
+        <v>176.0018399750621</v>
       </c>
       <c r="I41" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J41" t="n">
-        <v>359.2518005221776</v>
+        <v>362.0608947751945</v>
       </c>
       <c r="K41" t="n">
-        <v>882.6546590912072</v>
+        <v>885.4637533442241</v>
       </c>
       <c r="L41" t="n">
-        <v>1584.258815135005</v>
+        <v>1587.067909388022</v>
       </c>
       <c r="M41" t="n">
-        <v>2381.535168854896</v>
+        <v>2384.344263107912</v>
       </c>
       <c r="N41" t="n">
-        <v>3177.080289958927</v>
+        <v>3051.915038066382</v>
       </c>
       <c r="O41" t="n">
-        <v>3883.103350983122</v>
+        <v>3757.938099090577</v>
       </c>
       <c r="P41" t="n">
-        <v>4182.383351695538</v>
+        <v>4322.838064346381</v>
       </c>
       <c r="Q41" t="n">
-        <v>4529.377940004241</v>
+        <v>4669.832652655084</v>
       </c>
       <c r="R41" t="n">
-        <v>4529.377940004241</v>
+        <v>4669.832652655084</v>
       </c>
       <c r="S41" t="n">
-        <v>4395.084642221213</v>
+        <v>4535.539354872055</v>
       </c>
       <c r="T41" t="n">
-        <v>4184.495967131817</v>
+        <v>4512.152161734683</v>
       </c>
       <c r="U41" t="n">
-        <v>3930.88122445525</v>
+        <v>4258.537419058117</v>
       </c>
       <c r="V41" t="n">
-        <v>3599.818337111679</v>
+        <v>3927.474531714547</v>
       </c>
       <c r="W41" t="n">
-        <v>3247.049681841565</v>
+        <v>3574.705876444432</v>
       </c>
       <c r="X41" t="n">
-        <v>2873.583923580485</v>
+        <v>3201.240118183352</v>
       </c>
       <c r="Y41" t="n">
-        <v>2483.444591604673</v>
+        <v>2811.100786207541</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>980.8017263923772</v>
+        <v>983.610820645394</v>
       </c>
       <c r="C42" t="n">
-        <v>806.3486971112502</v>
+        <v>809.157791364267</v>
       </c>
       <c r="D42" t="n">
-        <v>657.4142874499989</v>
+        <v>660.2233817030158</v>
       </c>
       <c r="E42" t="n">
-        <v>498.1768324445435</v>
+        <v>500.9859266975603</v>
       </c>
       <c r="F42" t="n">
-        <v>351.6422744714284</v>
+        <v>354.4513687244453</v>
       </c>
       <c r="G42" t="n">
-        <v>214.7155960756137</v>
+        <v>217.5246903286306</v>
       </c>
       <c r="H42" t="n">
-        <v>118.7707225073014</v>
+        <v>121.5798167603183</v>
       </c>
       <c r="I42" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J42" t="n">
-        <v>256.9087609524472</v>
+        <v>259.717855205464</v>
       </c>
       <c r="K42" t="n">
-        <v>492.2761074363586</v>
+        <v>670.6081240499766</v>
       </c>
       <c r="L42" t="n">
-        <v>739.0412353428227</v>
+        <v>917.3732519564406</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.409381735284</v>
+        <v>1224.693385236402</v>
       </c>
       <c r="N42" t="n">
-        <v>1837.272009399317</v>
+        <v>1554.556012900435</v>
       </c>
       <c r="O42" t="n">
-        <v>2116.812074618014</v>
+        <v>1834.096078119132</v>
       </c>
       <c r="P42" t="n">
-        <v>2321.834555400223</v>
+        <v>2354.396699854879</v>
       </c>
       <c r="Q42" t="n">
-        <v>2616.943972715937</v>
+        <v>2619.753066968954</v>
       </c>
       <c r="R42" t="n">
-        <v>2616.943972715937</v>
+        <v>2619.753066968954</v>
       </c>
       <c r="S42" t="n">
-        <v>2477.037867799711</v>
+        <v>2479.846962052728</v>
       </c>
       <c r="T42" t="n">
-        <v>2282.123251723489</v>
+        <v>2284.932345976506</v>
       </c>
       <c r="U42" t="n">
-        <v>2054.018327342876</v>
+        <v>2056.827421595893</v>
       </c>
       <c r="V42" t="n">
-        <v>1818.866219111133</v>
+        <v>1821.67531336415</v>
       </c>
       <c r="W42" t="n">
-        <v>1564.628862382932</v>
+        <v>1567.437956635949</v>
       </c>
       <c r="X42" t="n">
-        <v>1356.777362177399</v>
+        <v>1359.586456430416</v>
       </c>
       <c r="Y42" t="n">
-        <v>1149.017063412445</v>
+        <v>1151.826157665462</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
       <c r="C43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
       <c r="D43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
       <c r="E43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
       <c r="F43" t="n">
-        <v>520.7154803103734</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="G43" t="n">
-        <v>352.5401586301941</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="H43" t="n">
-        <v>202.1221501781374</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="I43" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J43" t="n">
-        <v>102.9702512639947</v>
+        <v>105.7793455170115</v>
       </c>
       <c r="K43" t="n">
-        <v>253.1556555086061</v>
+        <v>255.964749761623</v>
       </c>
       <c r="L43" t="n">
-        <v>500.8677005197353</v>
+        <v>503.6767947727522</v>
       </c>
       <c r="M43" t="n">
-        <v>772.4344432869182</v>
+        <v>775.243537539935</v>
       </c>
       <c r="N43" t="n">
-        <v>1042.978552314466</v>
+        <v>1045.787646567483</v>
       </c>
       <c r="O43" t="n">
-        <v>1276.853530319863</v>
+        <v>1279.662624572879</v>
       </c>
       <c r="P43" t="n">
-        <v>1453.453294925545</v>
+        <v>1456.262389178562</v>
       </c>
       <c r="Q43" t="n">
-        <v>1492.286737897701</v>
+        <v>1495.095832150718</v>
       </c>
       <c r="R43" t="n">
-        <v>1492.286737897701</v>
+        <v>1495.095832150718</v>
       </c>
       <c r="S43" t="n">
-        <v>1469.93665184218</v>
+        <v>1301.506448478319</v>
       </c>
       <c r="T43" t="n">
-        <v>1246.151236631686</v>
+        <v>1301.506448478319</v>
       </c>
       <c r="U43" t="n">
-        <v>957.0225978452445</v>
+        <v>1012.377809691877</v>
       </c>
       <c r="V43" t="n">
-        <v>957.0225978452445</v>
+        <v>757.6933214859901</v>
       </c>
       <c r="W43" t="n">
-        <v>667.6054278082838</v>
+        <v>468.2761514490294</v>
       </c>
       <c r="X43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
       <c r="Y43" t="n">
-        <v>667.6054278082838</v>
+        <v>240.286600551012</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2096.844751540551</v>
+        <v>2237.299464191394</v>
       </c>
       <c r="C44" t="n">
-        <v>1727.88223460014</v>
+        <v>1972.933242281047</v>
       </c>
       <c r="D44" t="n">
-        <v>1369.616535993389</v>
+        <v>1614.667543674296</v>
       </c>
       <c r="E44" t="n">
-        <v>983.828283395145</v>
+        <v>1228.879291076052</v>
       </c>
       <c r="F44" t="n">
-        <v>572.8423786055375</v>
+        <v>817.8933862864443</v>
       </c>
       <c r="G44" t="n">
-        <v>156.7166040704956</v>
+        <v>401.7676117514024</v>
       </c>
       <c r="H44" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="I44" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J44" t="n">
-        <v>359.2518005221776</v>
+        <v>234.0865486296328</v>
       </c>
       <c r="K44" t="n">
-        <v>882.6546590912072</v>
+        <v>757.4894071986624</v>
       </c>
       <c r="L44" t="n">
-        <v>1584.258815135005</v>
+        <v>1459.093563242461</v>
       </c>
       <c r="M44" t="n">
-        <v>2056.688068505046</v>
+        <v>2256.369916962351</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.233189609077</v>
+        <v>3051.915038066382</v>
       </c>
       <c r="O44" t="n">
-        <v>3558.256250633272</v>
+        <v>3757.938099090577</v>
       </c>
       <c r="P44" t="n">
-        <v>4123.156215889076</v>
+        <v>4322.838064346381</v>
       </c>
       <c r="Q44" t="n">
-        <v>4470.150804197779</v>
+        <v>4669.832652655084</v>
       </c>
       <c r="R44" t="n">
-        <v>4529.377940004241</v>
+        <v>4669.832652655084</v>
       </c>
       <c r="S44" t="n">
-        <v>4395.084642221213</v>
+        <v>4535.539354872055</v>
       </c>
       <c r="T44" t="n">
-        <v>4184.495967131817</v>
+        <v>4324.950679782659</v>
       </c>
       <c r="U44" t="n">
-        <v>3930.88122445525</v>
+        <v>4071.335937106092</v>
       </c>
       <c r="V44" t="n">
-        <v>3599.818337111679</v>
+        <v>3740.273049762522</v>
       </c>
       <c r="W44" t="n">
-        <v>3247.049681841565</v>
+        <v>3387.504394492407</v>
       </c>
       <c r="X44" t="n">
-        <v>2873.583923580485</v>
+        <v>3014.038636231327</v>
       </c>
       <c r="Y44" t="n">
-        <v>2483.444591604673</v>
+        <v>2623.899304255516</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>980.8017263923772</v>
+        <v>983.610820645394</v>
       </c>
       <c r="C45" t="n">
-        <v>806.3486971112502</v>
+        <v>809.157791364267</v>
       </c>
       <c r="D45" t="n">
-        <v>657.4142874499989</v>
+        <v>660.2233817030158</v>
       </c>
       <c r="E45" t="n">
-        <v>498.1768324445435</v>
+        <v>500.9859266975603</v>
       </c>
       <c r="F45" t="n">
-        <v>351.6422744714284</v>
+        <v>354.4513687244453</v>
       </c>
       <c r="G45" t="n">
-        <v>214.7155960756137</v>
+        <v>217.5246903286306</v>
       </c>
       <c r="H45" t="n">
-        <v>118.7707225073014</v>
+        <v>121.5798167603183</v>
       </c>
       <c r="I45" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J45" t="n">
-        <v>132.0786359654424</v>
+        <v>134.8877302184593</v>
       </c>
       <c r="K45" t="n">
-        <v>281.1483201675022</v>
+        <v>283.9574144205191</v>
       </c>
       <c r="L45" t="n">
-        <v>527.9134480739663</v>
+        <v>530.7225423269831</v>
       </c>
       <c r="M45" t="n">
-        <v>1296.281594466428</v>
+        <v>1299.090688719445</v>
       </c>
       <c r="N45" t="n">
-        <v>2045.248524257807</v>
+        <v>2048.057618510824</v>
       </c>
       <c r="O45" t="n">
-        <v>2324.788589476504</v>
+        <v>2327.597683729521</v>
       </c>
       <c r="P45" t="n">
-        <v>2529.811070258714</v>
+        <v>2532.620164511731</v>
       </c>
       <c r="Q45" t="n">
-        <v>2616.943972715937</v>
+        <v>2619.753066968954</v>
       </c>
       <c r="R45" t="n">
-        <v>2616.943972715937</v>
+        <v>2619.753066968954</v>
       </c>
       <c r="S45" t="n">
-        <v>2477.037867799711</v>
+        <v>2479.846962052728</v>
       </c>
       <c r="T45" t="n">
-        <v>2282.123251723489</v>
+        <v>2284.932345976506</v>
       </c>
       <c r="U45" t="n">
-        <v>2054.018327342876</v>
+        <v>2056.827421595893</v>
       </c>
       <c r="V45" t="n">
-        <v>1818.866219111133</v>
+        <v>1821.67531336415</v>
       </c>
       <c r="W45" t="n">
-        <v>1564.628862382932</v>
+        <v>1567.437956635949</v>
       </c>
       <c r="X45" t="n">
-        <v>1356.777362177399</v>
+        <v>1359.586456430416</v>
       </c>
       <c r="Y45" t="n">
-        <v>1149.017063412445</v>
+        <v>1151.826157665462</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>704.443422220631</v>
+        <v>559.3394228912547</v>
       </c>
       <c r="C46" t="n">
-        <v>535.5072392927241</v>
+        <v>390.4032399633478</v>
       </c>
       <c r="D46" t="n">
-        <v>385.3905998803883</v>
+        <v>240.286600551012</v>
       </c>
       <c r="E46" t="n">
-        <v>237.4775062979952</v>
+        <v>240.286600551012</v>
       </c>
       <c r="F46" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="G46" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="H46" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="I46" t="n">
-        <v>90.58755880008482</v>
+        <v>93.39665305310167</v>
       </c>
       <c r="J46" t="n">
-        <v>102.9702512639947</v>
+        <v>105.7793455170115</v>
       </c>
       <c r="K46" t="n">
-        <v>253.1556555086061</v>
+        <v>255.964749761623</v>
       </c>
       <c r="L46" t="n">
-        <v>500.8677005197353</v>
+        <v>503.6767947727522</v>
       </c>
       <c r="M46" t="n">
-        <v>772.4344432869182</v>
+        <v>775.243537539935</v>
       </c>
       <c r="N46" t="n">
-        <v>1042.978552314466</v>
+        <v>1045.787646567483</v>
       </c>
       <c r="O46" t="n">
-        <v>1276.853530319863</v>
+        <v>1279.662624572879</v>
       </c>
       <c r="P46" t="n">
-        <v>1453.453294925545</v>
+        <v>1456.262389178562</v>
       </c>
       <c r="Q46" t="n">
-        <v>1492.286737897701</v>
+        <v>1495.095832150718</v>
       </c>
       <c r="R46" t="n">
-        <v>1492.286737897701</v>
+        <v>1495.095832150718</v>
       </c>
       <c r="S46" t="n">
-        <v>1492.286737897701</v>
+        <v>1295.17582206627</v>
       </c>
       <c r="T46" t="n">
-        <v>1268.501322687207</v>
+        <v>1295.17582206627</v>
       </c>
       <c r="U46" t="n">
-        <v>1268.501322687207</v>
+        <v>1295.17582206627</v>
       </c>
       <c r="V46" t="n">
-        <v>1013.81683448132</v>
+        <v>1040.491333860384</v>
       </c>
       <c r="W46" t="n">
-        <v>724.3996644443598</v>
+        <v>1040.491333860384</v>
       </c>
       <c r="X46" t="n">
-        <v>724.3996644443598</v>
+        <v>812.5017829623662</v>
       </c>
       <c r="Y46" t="n">
-        <v>724.3996644443598</v>
+        <v>740.9878877214944</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599057</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8707,10 +8707,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.9853146396196</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928398</v>
+        <v>14.58731103548531</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>15.92129162592732</v>
+        <v>155.7262705026695</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>121.3851493010647</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928398</v>
+        <v>14.58731103548534</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>68.2988682894493</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>262.1013787935503</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>79.33192306650952</v>
       </c>
       <c r="K18" t="n">
-        <v>204.0688141451194</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>167.9634363311156</v>
+        <v>441.967925449371</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>52.49733361305231</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165112</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>15.83804904622903</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11071,13 +11071,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>308.0799081033364</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>53.49571368321284</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>87.16935584025418</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>39.82959886342564</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>121.385149301065</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>5.891030169484367</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165119</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>24.38661677579262</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>101.6247869263127</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.38123196518137</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>158.4188286386023</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>60.68140124480955</v>
+        <v>151.036698207717</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9949080615118</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.3711931582204</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.4958944699812</v>
       </c>
       <c r="J13" t="n">
-        <v>17.695841881769</v>
+        <v>22.9369394225242</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.754654922801166</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>132.5064037889917</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>206.6577918892697</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>223.6896484322355</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>316.7333886717716</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>213.3753039909747</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>260.3757915148915</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>137.4425591219999</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>79.01415221564923</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>28.57190662890662</v>
+        <v>166.9949080615118</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.3711931582204</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.4958944699813</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.93693942252422</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.75465492280118</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>132.5064037889917</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>206.6577918892697</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.6896484322355</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.3220053498652</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>89.22978509949712</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>25.71087613492197</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.695841881769</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>159.9403923113728</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>198.8364630504098</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>22.61020302560425</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>110.617798207028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
         <v>223.3729047207587</v>
@@ -24186,7 +24186,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>159.9403923113728</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.952174156736</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>145.6695415024077</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>10.65497486614711</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.78294243340332</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.8522316140635553</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>239.819494293611</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>185.3294671325042</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>175.7942247886375</v>
+        <v>6.267320147927819</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>103.5503320797639</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>239.819494293611</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.0753003804457</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>147.7858970636318</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807884.3371459164</v>
+        <v>821069.2662444671</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807884.3371459164</v>
+        <v>821069.266244467</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841881.3098559303</v>
+        <v>841881.3098559296</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>841881.3098559304</v>
+        <v>841881.3098559297</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>961691.9181762059</v>
+        <v>961691.9181762058</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>961691.9181762059</v>
+        <v>961691.9181762058</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961691.9181762058</v>
+        <v>961691.9181762059</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927694.945466192</v>
+        <v>942100.2897875177</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927694.945466192</v>
+        <v>942100.2897875177</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>373676.4347821396</v>
+        <v>377750.2654520454</v>
       </c>
       <c r="F2" t="n">
-        <v>373676.4347821395</v>
+        <v>377750.2654520454</v>
       </c>
       <c r="G2" t="n">
-        <v>388396.004047322</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="H2" t="n">
-        <v>388396.004047322</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="L2" t="n">
         <v>449683.4186983651</v>
       </c>
-      <c r="K2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="O2" t="n">
-        <v>434963.8494331827</v>
+        <v>441200.8889877104</v>
       </c>
       <c r="P2" t="n">
-        <v>434963.8494331827</v>
+        <v>441200.8889877104</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223403.8610861256</v>
+        <v>200860.7057996408</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22713.19323963996</v>
+        <v>45050.99948020371</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990979</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41801.73017649406</v>
+        <v>50552.19922935389</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="C4" t="n">
-        <v>192206.5963924298</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
-        <v>44885.01399560377</v>
+        <v>49760.1467893647</v>
       </c>
       <c r="F4" t="n">
-        <v>44885.01399560377</v>
+        <v>49760.1467893647</v>
       </c>
       <c r="G4" t="n">
-        <v>48842.04543192597</v>
+        <v>48842.04543192602</v>
       </c>
       <c r="H4" t="n">
-        <v>48842.04543192597</v>
+        <v>48842.04543192601</v>
       </c>
       <c r="I4" t="n">
         <v>43561.42148316556</v>
@@ -26447,7 +26447,7 @@
         <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316557</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="M4" t="n">
         <v>43561.42148316556</v>
@@ -26456,10 +26456,10 @@
         <v>43561.42148316556</v>
       </c>
       <c r="O4" t="n">
-        <v>39604.39004684335</v>
+        <v>41281.08052210268</v>
       </c>
       <c r="P4" t="n">
-        <v>39604.39004684336</v>
+        <v>41281.08052210268</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>64133.09846184873</v>
+        <v>65371.82756749923</v>
       </c>
       <c r="F5" t="n">
-        <v>64133.09846184873</v>
+        <v>65371.82756749923</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>86948.88112696384</v>
+        <v>89083.79275925664</v>
       </c>
       <c r="P5" t="n">
-        <v>86948.88112696384</v>
+        <v>89083.79275925664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-392934.5359984206</v>
+        <v>-392934.5359984207</v>
       </c>
       <c r="C6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161238</v>
       </c>
       <c r="D6" t="n">
-        <v>197033.3432161237</v>
+        <v>197033.3432161236</v>
       </c>
       <c r="E6" t="n">
-        <v>41254.46123856153</v>
+        <v>57655.46563380516</v>
       </c>
       <c r="F6" t="n">
-        <v>264658.322324687</v>
+        <v>258516.1714334459</v>
       </c>
       <c r="G6" t="n">
-        <v>247669.2220921545</v>
+        <v>221692.1543896496</v>
       </c>
       <c r="H6" t="n">
-        <v>270382.4153317945</v>
+        <v>266743.1538698533</v>
       </c>
       <c r="I6" t="n">
-        <v>58602.51166738512</v>
+        <v>57627.92040766209</v>
       </c>
       <c r="J6" t="n">
-        <v>137711.45207389</v>
+        <v>136736.8608141684</v>
       </c>
       <c r="K6" t="n">
-        <v>314134.6712664829</v>
+        <v>313160.0800067614</v>
       </c>
       <c r="L6" t="n">
-        <v>314134.6712664831</v>
+        <v>313160.0800067612</v>
       </c>
       <c r="M6" t="n">
-        <v>272332.9410899889</v>
+        <v>262607.8807774076</v>
       </c>
       <c r="N6" t="n">
-        <v>314134.6712664829</v>
+        <v>313160.0800067614</v>
       </c>
       <c r="O6" t="n">
-        <v>308410.5782593756</v>
+        <v>309492.6188070357</v>
       </c>
       <c r="P6" t="n">
-        <v>308410.5782593755</v>
+        <v>309492.6188070357</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.476100338065</v>
+        <v>552.3668101251207</v>
       </c>
       <c r="F3" t="n">
-        <v>593.476100338065</v>
+        <v>552.3668101251205</v>
       </c>
       <c r="G3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26795,19 +26795,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>842.0282808302453</v>
+        <v>877.141958992954</v>
       </c>
       <c r="F4" t="n">
-        <v>842.0282808302453</v>
+        <v>877.141958992954</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1132.34448500106</v>
+        <v>1167.458163163771</v>
       </c>
       <c r="P4" t="n">
-        <v>1132.34448500106</v>
+        <v>1167.458163163771</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209783</v>
+        <v>174.6231459080341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>41.10929021294282</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160354</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>167.7410080756895</v>
+        <v>202.8546862383984</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.86915825251273</v>
+        <v>47.75548008980218</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708152</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7410080756893</v>
+        <v>202.8546862383986</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7410080756895</v>
+        <v>202.8546862383984</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.86915825251273</v>
+        <v>47.75548008980218</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>321.6357526240916</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>69.3320101567183</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>308.0968414753722</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.3937014034613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>231.821082683639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762263</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>78.15128724430897</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198249</v>
+        <v>2.220570090955257</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055157</v>
+        <v>22.74141344399553</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651559</v>
+        <v>85.60852843155264</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937401</v>
+        <v>188.4681107572139</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779021</v>
+        <v>282.46484270735</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971253</v>
+        <v>350.422614628422</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074824</v>
+        <v>389.9126779834476</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335967</v>
+        <v>396.2218727543743</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822518</v>
+        <v>374.1410789124379</v>
       </c>
       <c r="P11" t="n">
-        <v>343.08584954267</v>
+        <v>319.3207547919799</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457576</v>
+        <v>239.7965884096447</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>139.4878859759683</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810516</v>
+        <v>50.60124094764298</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916534</v>
+        <v>9.720545573156643</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1776456072764205</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840366</v>
+        <v>1.188109742533279</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985301</v>
+        <v>11.47463882920298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118284</v>
+        <v>40.90640999511508</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847383</v>
+        <v>112.2503156311814</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070428</v>
+        <v>191.853668380911</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512822</v>
+        <v>257.9709333513595</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842453</v>
+        <v>301.0399115181907</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900653</v>
+        <v>309.0075422038635</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947077</v>
+        <v>282.6815315929945</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671573</v>
+        <v>226.8768507474293</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607457</v>
+        <v>151.6611664328445</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080802</v>
+        <v>73.76702418991708</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784626</v>
+        <v>22.06861736679136</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>4.78891602363194</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.0781651146403473</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888314</v>
+        <v>0.9960712969469387</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207014</v>
+        <v>8.855979349219153</v>
       </c>
       <c r="I13" t="n">
-        <v>32.1839170478413</v>
+        <v>29.95458045727704</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490378</v>
+        <v>70.42224069414857</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790241</v>
+        <v>115.725374318017</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889953</v>
+        <v>148.088636275184</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676927</v>
+        <v>156.1387033932369</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441091</v>
+        <v>152.4260740137076</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714137</v>
+        <v>140.7901502266456</v>
       </c>
       <c r="P13" t="n">
-        <v>129.436164572092</v>
+        <v>120.4702957689279</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510478</v>
+        <v>83.40738832889322</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937817</v>
+        <v>44.7869875881778</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685361</v>
+        <v>17.35880614770256</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522794</v>
+        <v>4.25594099604601</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05433116165165127</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198249</v>
+        <v>2.220570090955257</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055157</v>
+        <v>22.74141344399553</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651559</v>
+        <v>85.60852843155261</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>188.4681107572139</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>282.46484270735</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971253</v>
+        <v>350.422614628422</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074824</v>
+        <v>389.9126779834475</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>396.2218727543741</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822518</v>
+        <v>374.1410789124378</v>
       </c>
       <c r="P14" t="n">
-        <v>343.08584954267</v>
+        <v>319.3207547919799</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457576</v>
+        <v>239.7965884096446</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>139.4878859759683</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810516</v>
+        <v>50.60124094764296</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>9.720545573156642</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1776456072764205</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>1.188109742533278</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>11.47463882920298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118284</v>
+        <v>40.90640999511506</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>112.2503156311814</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070428</v>
+        <v>191.853668380911</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>257.9709333513594</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842453</v>
+        <v>301.0399115181906</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>309.0075422038635</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>282.6815315929945</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671573</v>
+        <v>226.8768507474292</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>151.6611664328444</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080802</v>
+        <v>73.76702418991707</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>22.06861736679136</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308316</v>
+        <v>4.788916023631939</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.07816511464034728</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>0.9960712969469385</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207014</v>
+        <v>8.855979349219151</v>
       </c>
       <c r="I16" t="n">
-        <v>32.1839170478413</v>
+        <v>29.95458045727704</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490378</v>
+        <v>70.42224069414856</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>115.725374318017</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889953</v>
+        <v>148.088636275184</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>156.1387033932369</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>152.4260740137075</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>140.7901502266455</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>120.4702957689279</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510478</v>
+        <v>83.40738832889321</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>44.78698758817779</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>17.35880614770255</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522794</v>
+        <v>4.255940996046009</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05433116165165126</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971253</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207014</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898699</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>176.5188214026014</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>386.5204042335342</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517162</v>
+        <v>532.3174142088852</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730421</v>
+        <v>609.0799782490074</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>604.1557335697676</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>524.8430487534965</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>409.886467208193</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.3228096109277</v>
+        <v>229.8058891950999</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268384</v>
+        <v>54.01222940655202</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>490.2568988749445</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>624.6109413461722</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502855</v>
+        <v>657.0082044640837</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269927</v>
+        <v>533.9476064252797</v>
       </c>
       <c r="P12" t="n">
-        <v>125.7087941787544</v>
+        <v>248.6287138357686</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747242</v>
+        <v>11.67939234682294</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531412</v>
+        <v>93.45588249213419</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493115</v>
+        <v>175.6786615355001</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295333</v>
+        <v>195.7225803550775</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233377</v>
+        <v>196.5582463929362</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854534</v>
+        <v>165.3752781406852</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369855</v>
+        <v>117.7488550338214</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353415</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>176.5188214026014</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>386.5204042335342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517162</v>
+        <v>532.3174142088851</v>
       </c>
       <c r="M14" t="n">
-        <v>309.9704147812744</v>
+        <v>609.0799782490072</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>604.1557335697673</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>524.8430487534964</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588831</v>
+        <v>409.886467208193</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312128</v>
+        <v>229.8058891950998</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268384</v>
+        <v>318.4774664191306</v>
       </c>
       <c r="L15" t="n">
-        <v>206.9146238608573</v>
+        <v>119.4165535714852</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>624.6109413461722</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502855</v>
+        <v>657.0082044640837</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269927</v>
+        <v>533.9476064252796</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927642</v>
+        <v>355.0038221266493</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747242</v>
+        <v>11.67939234682291</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>93.45588249213417</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>175.6786615355001</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>195.7225803550775</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>196.5582463929361</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>165.3752781406852</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>117.7488550338214</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353415</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730421</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584804</v>
+        <v>73.09871788458079</v>
       </c>
       <c r="K18" t="n">
-        <v>272.3595410778033</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M18" t="n">
-        <v>181.310440762227</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502855</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269927</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927642</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493115</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452625</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>349.2738770933427</v>
+        <v>623.2783662115971</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067319</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269927</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927642</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493115</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.40751256795899</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
@@ -36931,7 +36931,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
@@ -37168,7 +37168,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>222.9314639777537</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>674.3139140994641</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>302.3030310226425</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>237.7447944281934</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>142.1110056328598</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>477.2012660303441</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145247</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
